--- a/data/desc_produtos.xlsx
+++ b/data/desc_produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gustavo\dash_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7699AF-7395-478F-A42C-E7C15A6AE1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C51CBF-FEF9-42EF-9D45-B966D6C1F829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2437,10 +2437,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2725,7 +2726,7 @@
   <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12084,7 +12085,7 @@
   <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12169,7 +12170,7 @@
       <c r="A10">
         <v>7983</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>591</v>
       </c>
     </row>
@@ -12178,7 +12179,7 @@
         <v>11504</v>
       </c>
       <c r="B11" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/desc_produtos.xlsx
+++ b/data/desc_produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gustavo\dash_streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C51CBF-FEF9-42EF-9D45-B966D6C1F829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7ADD68-73CC-4912-AC32-F8F51A62EB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
     <sheet name="Prod" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$B$356</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="786">
   <si>
     <t>Código Promax</t>
   </si>
@@ -2388,13 +2389,25 @@
   </si>
   <si>
     <t>Prod_resume</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>FEFO/ESTOQUE</t>
+  </si>
+  <si>
+    <t>FEFO/PICKING</t>
+  </si>
+  <si>
+    <t>18/18/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2403,15 +2416,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2424,8 +2470,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFB5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2433,15 +2497,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10639,7 +10795,7 @@
       <c r="C137" t="s">
         <v>149</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>699</v>
       </c>
     </row>
@@ -12082,15 +12238,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456D2FDD-B66A-4202-899E-EBAA6B1E4F4F}">
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12100,6 +12258,12 @@
       <c r="B1" t="s">
         <v>781</v>
       </c>
+      <c r="C1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -12108,6 +12272,14 @@
       <c r="B2" t="s">
         <v>585</v>
       </c>
+      <c r="C2" s="18">
+        <f>IF(VLOOKUP(A2,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A2,Planilha2!A:B,2,0),"-")</f>
+        <v>45681</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f>IF(VLOOKUP(A2,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A2,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -12116,6 +12288,14 @@
       <c r="B3" t="s">
         <v>589</v>
       </c>
+      <c r="C3" s="18" t="str">
+        <f>IF(VLOOKUP(A3,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A3,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D3" s="7">
+        <f>IF(VLOOKUP(A3,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A3,Planilha2!A:C,3,0),"-")</f>
+        <v>45590</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -12124,6 +12304,14 @@
       <c r="B4" t="s">
         <v>584</v>
       </c>
+      <c r="C4" s="18" t="str">
+        <f>IF(VLOOKUP(A4,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A4,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D4" s="7">
+        <f>IF(VLOOKUP(A4,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A4,Planilha2!A:C,3,0),"-")</f>
+        <v>45681</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -12132,7 +12320,14 @@
       <c r="B5" t="s">
         <v>587</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="18">
+        <f>IF(VLOOKUP(A5,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A5,Planilha2!A:B,2,0),"-")</f>
+        <v>45683</v>
+      </c>
+      <c r="D5" s="7">
+        <f>IF(VLOOKUP(A5,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A5,Planilha2!A:C,3,0),"-")</f>
+        <v>45683</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -12141,6 +12336,14 @@
       <c r="B6" t="s">
         <v>588</v>
       </c>
+      <c r="C6" s="18">
+        <f>IF(VLOOKUP(A6,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A6,Planilha2!A:B,2,0),"-")</f>
+        <v>45664</v>
+      </c>
+      <c r="D6" s="7">
+        <f>IF(VLOOKUP(A6,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A6,Planilha2!A:C,3,0),"-")</f>
+        <v>45664</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -12149,6 +12352,14 @@
       <c r="B7" t="s">
         <v>586</v>
       </c>
+      <c r="C7" s="18">
+        <f>IF(VLOOKUP(A7,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A7,Planilha2!A:B,2,0),"-")</f>
+        <v>45650</v>
+      </c>
+      <c r="D7" s="7">
+        <f>IF(VLOOKUP(A7,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A7,Planilha2!A:C,3,0),"-")</f>
+        <v>45619</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -12157,6 +12368,14 @@
       <c r="B8" t="s">
         <v>590</v>
       </c>
+      <c r="C8" s="18" t="str">
+        <f>IF(VLOOKUP(A8,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A8,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D8" s="7">
+        <f>IF(VLOOKUP(A8,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A8,Planilha2!A:C,3,0),"-")</f>
+        <v>45689</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -12165,13 +12384,29 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="18">
+        <f>IF(VLOOKUP(A9,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A9,Planilha2!A:B,2,0),"-")</f>
+        <v>45681</v>
+      </c>
+      <c r="D9" s="7">
+        <f>IF(VLOOKUP(A9,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A9,Planilha2!A:C,3,0),"-")</f>
+        <v>45663</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7983</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>591</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>IF(VLOOKUP(A10,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A10,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>IF(VLOOKUP(A10,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A10,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12181,6 +12416,14 @@
       <c r="B11" t="s">
         <v>582</v>
       </c>
+      <c r="C11" s="18">
+        <f>IF(VLOOKUP(A11,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A11,Planilha2!A:B,2,0),"-")</f>
+        <v>45671</v>
+      </c>
+      <c r="D11" s="7">
+        <f>IF(VLOOKUP(A11,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A11,Planilha2!A:C,3,0),"-")</f>
+        <v>45661</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -12189,6 +12432,14 @@
       <c r="B12" t="s">
         <v>593</v>
       </c>
+      <c r="C12" s="18">
+        <f>IF(VLOOKUP(A12,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A12,Planilha2!A:B,2,0),"-")</f>
+        <v>45678</v>
+      </c>
+      <c r="D12" s="7">
+        <f>IF(VLOOKUP(A12,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A12,Planilha2!A:C,3,0),"-")</f>
+        <v>45678</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -12197,6 +12448,14 @@
       <c r="B13" t="s">
         <v>583</v>
       </c>
+      <c r="C13" s="18" t="str">
+        <f>IF(VLOOKUP(A13,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A13,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D13" s="7">
+        <f>IF(VLOOKUP(A13,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A13,Planilha2!A:C,3,0),"-")</f>
+        <v>45662</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -12205,6 +12464,14 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
+      <c r="C14" s="18" t="str">
+        <f>IF(VLOOKUP(A14,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A14,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>IF(VLOOKUP(A14,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A14,Planilha2!A:C,3,0),"-")</f>
+        <v>18/18/2024</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -12213,6 +12480,14 @@
       <c r="B15" t="s">
         <v>596</v>
       </c>
+      <c r="C15" s="18">
+        <f>IF(VLOOKUP(A15,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A15,Planilha2!A:B,2,0),"-")</f>
+        <v>45640</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>IF(VLOOKUP(A15,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A15,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -12221,1798 +12496,8021 @@
       <c r="B16" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="str">
+        <f>IF(VLOOKUP(A16,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A16,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D16" s="7">
+        <f>IF(VLOOKUP(A16,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A16,Planilha2!A:C,3,0),"-")</f>
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18836</v>
       </c>
       <c r="B17" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="18">
+        <f>IF(VLOOKUP(A17,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A17,Planilha2!A:B,2,0),"-")</f>
+        <v>45790</v>
+      </c>
+      <c r="D17" s="7">
+        <f>IF(VLOOKUP(A17,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A17,Planilha2!A:C,3,0),"-")</f>
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2350</v>
       </c>
       <c r="B18" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="str">
+        <f>IF(VLOOKUP(A18,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A18,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D18" s="7">
+        <f>IF(VLOOKUP(A18,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A18,Planilha2!A:C,3,0),"-")</f>
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19310</v>
       </c>
       <c r="B19" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="18" t="str">
+        <f>IF(VLOOKUP(A19,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A19,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D19" s="7">
+        <f>IF(VLOOKUP(A19,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A19,Planilha2!A:C,3,0),"-")</f>
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7985</v>
       </c>
       <c r="B20" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="18">
+        <f>IF(VLOOKUP(A20,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A20,Planilha2!A:B,2,0),"-")</f>
+        <v>45542</v>
+      </c>
+      <c r="D20" s="7">
+        <f>IF(VLOOKUP(A20,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A20,Planilha2!A:C,3,0),"-")</f>
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>32067</v>
       </c>
       <c r="B21" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="str">
+        <f>IF(VLOOKUP(A21,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A21,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D21" s="7">
+        <f>IF(VLOOKUP(A21,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A21,Planilha2!A:C,3,0),"-")</f>
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21441</v>
       </c>
       <c r="B22" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="18">
+        <f>IF(VLOOKUP(A22,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A22,Planilha2!A:B,2,0),"-")</f>
+        <v>45587</v>
+      </c>
+      <c r="D22" s="7">
+        <f>IF(VLOOKUP(A22,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A22,Planilha2!A:C,3,0),"-")</f>
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>978</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="18">
+        <f>IF(VLOOKUP(A23,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A23,Planilha2!A:B,2,0),"-")</f>
+        <v>45681</v>
+      </c>
+      <c r="D23" s="7">
+        <f>IF(VLOOKUP(A23,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A23,Planilha2!A:C,3,0),"-")</f>
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7977</v>
       </c>
       <c r="B24" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="18" t="str">
+        <f>IF(VLOOKUP(A24,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A24,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f>IF(VLOOKUP(A24,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A24,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1166</v>
       </c>
       <c r="B25" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="18" t="str">
+        <f>IF(VLOOKUP(A25,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A25,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D25" s="7">
+        <f>IF(VLOOKUP(A25,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A25,Planilha2!A:C,3,0),"-")</f>
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13065</v>
       </c>
       <c r="B26" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="18" t="str">
+        <f>IF(VLOOKUP(A26,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A26,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D26" s="7">
+        <f>IF(VLOOKUP(A26,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A26,Planilha2!A:C,3,0),"-")</f>
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18676</v>
       </c>
       <c r="B27" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="18" t="str">
+        <f>IF(VLOOKUP(A27,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A27,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f>IF(VLOOKUP(A27,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A27,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17808</v>
       </c>
       <c r="B28" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="18" t="str">
+        <f>IF(VLOOKUP(A28,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A28,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D28" s="7">
+        <f>IF(VLOOKUP(A28,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A28,Planilha2!A:C,3,0),"-")</f>
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13061</v>
       </c>
       <c r="B29" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="18" t="str">
+        <f>IF(VLOOKUP(A29,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A29,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D29" s="7">
+        <f>IF(VLOOKUP(A29,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A29,Planilha2!A:C,3,0),"-")</f>
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31272</v>
       </c>
       <c r="B30" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="18" t="str">
+        <f>IF(VLOOKUP(A30,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A30,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f>IF(VLOOKUP(A30,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A30,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24168</v>
       </c>
       <c r="B31" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="18" t="str">
+        <f>IF(VLOOKUP(A31,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A31,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D31" s="7">
+        <f>IF(VLOOKUP(A31,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A31,Planilha2!A:C,3,0),"-")</f>
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19225</v>
       </c>
       <c r="B32" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="18">
+        <f>IF(VLOOKUP(A32,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A32,Planilha2!A:B,2,0),"-")</f>
+        <v>45662</v>
+      </c>
+      <c r="D32" s="7">
+        <f>IF(VLOOKUP(A32,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A32,Planilha2!A:C,3,0),"-")</f>
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13307</v>
       </c>
       <c r="B33" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="18">
+        <f>IF(VLOOKUP(A33,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A33,Planilha2!A:B,2,0),"-")</f>
+        <v>45566</v>
+      </c>
+      <c r="D33" s="7">
+        <f>IF(VLOOKUP(A33,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A33,Planilha2!A:C,3,0),"-")</f>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2546</v>
       </c>
       <c r="B34" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="18">
+        <f>IF(VLOOKUP(A34,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A34,Planilha2!A:B,2,0),"-")</f>
+        <v>45677</v>
+      </c>
+      <c r="D34" s="7">
+        <f>IF(VLOOKUP(A34,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A34,Planilha2!A:C,3,0),"-")</f>
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8413</v>
       </c>
       <c r="B35" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="18">
+        <f>IF(VLOOKUP(A35,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A35,Planilha2!A:B,2,0),"-")</f>
+        <v>45655</v>
+      </c>
+      <c r="D35" s="7">
+        <f>IF(VLOOKUP(A35,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A35,Planilha2!A:C,3,0),"-")</f>
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19799</v>
       </c>
       <c r="B36" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="18" t="str">
+        <f>IF(VLOOKUP(A36,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A36,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D36" s="7">
+        <f>IF(VLOOKUP(A36,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A36,Planilha2!A:C,3,0),"-")</f>
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2538</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="18">
+        <f>IF(VLOOKUP(A37,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A37,Planilha2!A:B,2,0),"-")</f>
+        <v>45671</v>
+      </c>
+      <c r="D37" s="7">
+        <f>IF(VLOOKUP(A37,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A37,Planilha2!A:C,3,0),"-")</f>
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7947</v>
       </c>
       <c r="B38" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="18">
+        <f>IF(VLOOKUP(A38,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A38,Planilha2!A:B,2,0),"-")</f>
+        <v>45919</v>
+      </c>
+      <c r="D38" s="7">
+        <f>IF(VLOOKUP(A38,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A38,Planilha2!A:C,3,0),"-")</f>
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24819</v>
       </c>
       <c r="B39" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="18" t="str">
+        <f>IF(VLOOKUP(A39,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A39,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D39" s="7">
+        <f>IF(VLOOKUP(A39,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A39,Planilha2!A:C,3,0),"-")</f>
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8411</v>
       </c>
       <c r="B40" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="18" t="str">
+        <f>IF(VLOOKUP(A40,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A40,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D40" s="7">
+        <f>IF(VLOOKUP(A40,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A40,Planilha2!A:C,3,0),"-")</f>
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>29580</v>
       </c>
       <c r="B41" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="18">
+        <f>IF(VLOOKUP(A41,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A41,Planilha2!A:B,2,0),"-")</f>
+        <v>45571</v>
+      </c>
+      <c r="D41" s="7">
+        <f>IF(VLOOKUP(A41,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A41,Planilha2!A:C,3,0),"-")</f>
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>23218</v>
       </c>
       <c r="B42" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="18" t="str">
+        <f>IF(VLOOKUP(A42,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A42,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f>IF(VLOOKUP(A42,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A42,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>21668</v>
       </c>
       <c r="B43" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="18" t="str">
+        <f>IF(VLOOKUP(A43,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A43,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D43" s="7">
+        <f>IF(VLOOKUP(A43,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A43,Planilha2!A:C,3,0),"-")</f>
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8418</v>
       </c>
       <c r="B44" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="18" t="str">
+        <f>IF(VLOOKUP(A44,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A44,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f>IF(VLOOKUP(A44,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A44,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>26188</v>
       </c>
       <c r="B45" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="str">
+        <f>IF(VLOOKUP(A45,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A45,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f>IF(VLOOKUP(A45,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A45,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9274</v>
       </c>
       <c r="B46" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="18">
+        <f>IF(VLOOKUP(A46,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A46,Planilha2!A:B,2,0),"-")</f>
+        <v>45514</v>
+      </c>
+      <c r="D46" s="7">
+        <f>IF(VLOOKUP(A46,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A46,Planilha2!A:C,3,0),"-")</f>
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>32361</v>
       </c>
       <c r="B47" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="18" t="str">
+        <f>IF(VLOOKUP(A47,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A47,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D47" s="7">
+        <f>IF(VLOOKUP(A47,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A47,Planilha2!A:C,3,0),"-")</f>
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4141</v>
       </c>
       <c r="B48" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="18">
+        <f>IF(VLOOKUP(A48,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A48,Planilha2!A:B,2,0),"-")</f>
+        <v>45655</v>
+      </c>
+      <c r="D48" s="7">
+        <f>IF(VLOOKUP(A48,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A48,Planilha2!A:C,3,0),"-")</f>
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4193</v>
       </c>
       <c r="B49" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="18" t="str">
+        <f>IF(VLOOKUP(A49,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A49,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f>IF(VLOOKUP(A49,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A49,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22027</v>
       </c>
       <c r="B50" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="18" t="str">
+        <f>IF(VLOOKUP(A50,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A50,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f>IF(VLOOKUP(A50,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A50,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>22235</v>
       </c>
       <c r="B51" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="18" t="str">
+        <f>IF(VLOOKUP(A51,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A51,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D51" s="7">
+        <f>IF(VLOOKUP(A51,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A51,Planilha2!A:C,3,0),"-")</f>
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20853</v>
       </c>
       <c r="B52" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="18" t="str">
+        <f>IF(VLOOKUP(A52,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A52,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D52" s="7">
+        <f>IF(VLOOKUP(A52,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A52,Planilha2!A:C,3,0),"-")</f>
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19629</v>
       </c>
       <c r="B53" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="18" t="str">
+        <f>IF(VLOOKUP(A53,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A53,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f>IF(VLOOKUP(A53,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A53,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4198</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="18" t="str">
+        <f>IF(VLOOKUP(A54,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A54,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="7" t="str">
+        <f>IF(VLOOKUP(A54,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A54,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>17874</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="18" t="str">
+        <f>IF(VLOOKUP(A55,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A55,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f>IF(VLOOKUP(A55,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A55,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>17278</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="18" t="str">
+        <f>IF(VLOOKUP(A56,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A56,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="7" t="str">
+        <f>IF(VLOOKUP(A56,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A56,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14103</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="18" t="str">
+        <f>IF(VLOOKUP(A57,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A57,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f>IF(VLOOKUP(A57,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A57,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17268</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="18" t="str">
+        <f>IF(VLOOKUP(A58,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A58,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D58" s="7" t="str">
+        <f>IF(VLOOKUP(A58,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A58,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14550</v>
       </c>
       <c r="B59" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="18" t="str">
+        <f>IF(VLOOKUP(A59,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A59,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D59" s="7">
+        <f>IF(VLOOKUP(A59,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A59,Planilha2!A:C,3,0),"-")</f>
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14109</v>
       </c>
       <c r="B60" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="18" t="str">
+        <f>IF(VLOOKUP(A60,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A60,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D60" s="7">
+        <f>IF(VLOOKUP(A60,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A60,Planilha2!A:C,3,0),"-")</f>
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17276</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="18" t="str">
+        <f>IF(VLOOKUP(A61,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A61,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D61" s="7" t="str">
+        <f>IF(VLOOKUP(A61,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A61,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>21501</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="18" t="str">
+        <f>IF(VLOOKUP(A62,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A62,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D62" s="7">
+        <f>IF(VLOOKUP(A62,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A62,Planilha2!A:C,3,0),"-")</f>
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>26607</v>
       </c>
       <c r="B63" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="18" t="str">
+        <f>IF(VLOOKUP(A63,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A63,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D63" s="7">
+        <f>IF(VLOOKUP(A63,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A63,Planilha2!A:C,3,0),"-")</f>
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19166</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="18" t="str">
+        <f>IF(VLOOKUP(A64,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A64,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D64" s="7">
+        <f>IF(VLOOKUP(A64,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A64,Planilha2!A:C,3,0),"-")</f>
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14552</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="18" t="str">
+        <f>IF(VLOOKUP(A65,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A65,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D65" s="7">
+        <f>IF(VLOOKUP(A65,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A65,Planilha2!A:C,3,0),"-")</f>
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>21666</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="18" t="str">
+        <f>IF(VLOOKUP(A66,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A66,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D66" s="7">
+        <f>IF(VLOOKUP(A66,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A66,Planilha2!A:C,3,0),"-")</f>
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>32427</v>
       </c>
       <c r="B67" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="18" t="str">
+        <f>IF(VLOOKUP(A67,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A67,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D67" s="7" t="str">
+        <f>IF(VLOOKUP(A67,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A67,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>279</v>
       </c>
       <c r="B68" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="18" t="str">
+        <f>IF(VLOOKUP(A68,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A68,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D68" s="7">
+        <f>IF(VLOOKUP(A68,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A68,Planilha2!A:C,3,0),"-")</f>
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>22202</v>
       </c>
       <c r="B69" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="18">
+        <f>IF(VLOOKUP(A69,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A69,Planilha2!A:B,2,0),"-")</f>
+        <v>45469</v>
+      </c>
+      <c r="D69" s="7">
+        <f>IF(VLOOKUP(A69,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A69,Planilha2!A:C,3,0),"-")</f>
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9071</v>
       </c>
       <c r="B70" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="18" t="str">
+        <f>IF(VLOOKUP(A70,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A70,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D70" s="7">
+        <f>IF(VLOOKUP(A70,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A70,Planilha2!A:C,3,0),"-")</f>
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>253</v>
       </c>
       <c r="B71" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="18">
+        <f>IF(VLOOKUP(A71,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A71,Planilha2!A:B,2,0),"-")</f>
+        <v>45542</v>
+      </c>
+      <c r="D71" s="7" t="str">
+        <f>IF(VLOOKUP(A71,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A71,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>371</v>
       </c>
       <c r="B72" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="18" t="str">
+        <f>IF(VLOOKUP(A72,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A72,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D72" s="7">
+        <f>IF(VLOOKUP(A72,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A72,Planilha2!A:C,3,0),"-")</f>
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>28137</v>
       </c>
       <c r="B73" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="18">
+        <f>IF(VLOOKUP(A73,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A73,Planilha2!A:B,2,0),"-")</f>
+        <v>45654</v>
+      </c>
+      <c r="D73" s="7" t="str">
+        <f>IF(VLOOKUP(A73,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A73,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>24306</v>
       </c>
       <c r="B74" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="18">
+        <f>IF(VLOOKUP(A74,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A74,Planilha2!A:B,2,0),"-")</f>
+        <v>45991</v>
+      </c>
+      <c r="D74" s="7">
+        <f>IF(VLOOKUP(A74,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A74,Planilha2!A:C,3,0),"-")</f>
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>29485</v>
       </c>
       <c r="B75" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="18" t="str">
+        <f>IF(VLOOKUP(A75,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A75,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D75" s="7">
+        <f>IF(VLOOKUP(A75,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A75,Planilha2!A:C,3,0),"-")</f>
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>23163</v>
       </c>
       <c r="B76" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="18" t="str">
+        <f>IF(VLOOKUP(A76,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A76,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D76" s="7">
+        <f>IF(VLOOKUP(A76,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A76,Planilha2!A:C,3,0),"-")</f>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>32349</v>
       </c>
       <c r="B77" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="18" t="str">
+        <f>IF(VLOOKUP(A77,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A77,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D77" s="7" t="str">
+        <f>IF(VLOOKUP(A77,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A77,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>31105</v>
       </c>
       <c r="B78" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="18">
+        <f>IF(VLOOKUP(A78,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A78,Planilha2!A:B,2,0),"-")</f>
+        <v>45557</v>
+      </c>
+      <c r="D78" s="7">
+        <f>IF(VLOOKUP(A78,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A78,Planilha2!A:C,3,0),"-")</f>
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>9093</v>
       </c>
       <c r="B79" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="18" t="str">
+        <f>IF(VLOOKUP(A79,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A79,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D79" s="7" t="str">
+        <f>IF(VLOOKUP(A79,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A79,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9069</v>
       </c>
       <c r="B80" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="18">
+        <f>IF(VLOOKUP(A80,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A80,Planilha2!A:B,2,0),"-")</f>
+        <v>45652</v>
+      </c>
+      <c r="D80" s="7">
+        <f>IF(VLOOKUP(A80,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A80,Planilha2!A:C,3,0),"-")</f>
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>19231</v>
       </c>
       <c r="B81" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="18" t="str">
+        <f>IF(VLOOKUP(A81,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A81,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D81" s="7">
+        <f>IF(VLOOKUP(A81,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A81,Planilha2!A:C,3,0),"-")</f>
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>19227</v>
       </c>
       <c r="B82" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="18">
+        <f>IF(VLOOKUP(A82,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A82,Planilha2!A:B,2,0),"-")</f>
+        <v>45992</v>
+      </c>
+      <c r="D82" s="7">
+        <f>IF(VLOOKUP(A82,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A82,Planilha2!A:C,3,0),"-")</f>
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14113</v>
       </c>
       <c r="B83" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="18" t="str">
+        <f>IF(VLOOKUP(A83,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A83,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D83" s="7" t="str">
+        <f>IF(VLOOKUP(A83,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A83,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9081</v>
       </c>
       <c r="B84" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="18" t="str">
+        <f>IF(VLOOKUP(A84,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A84,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D84" s="7" t="str">
+        <f>IF(VLOOKUP(A84,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A84,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11425</v>
       </c>
       <c r="B85" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="18" t="str">
+        <f>IF(VLOOKUP(A85,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A85,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D85" s="7" t="str">
+        <f>IF(VLOOKUP(A85,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A85,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>22177</v>
       </c>
       <c r="B86" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="18">
+        <f>IF(VLOOKUP(A86,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A86,Planilha2!A:B,2,0),"-")</f>
+        <v>45609</v>
+      </c>
+      <c r="D86" s="7">
+        <f>IF(VLOOKUP(A86,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A86,Planilha2!A:C,3,0),"-")</f>
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1164</v>
       </c>
       <c r="B87" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="18">
+        <f>IF(VLOOKUP(A87,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A87,Planilha2!A:B,2,0),"-")</f>
+        <v>45514</v>
+      </c>
+      <c r="D87" s="7">
+        <f>IF(VLOOKUP(A87,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A87,Planilha2!A:C,3,0),"-")</f>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>24479</v>
       </c>
       <c r="B88" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="18">
+        <f>IF(VLOOKUP(A88,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A88,Planilha2!A:B,2,0),"-")</f>
+        <v>45641</v>
+      </c>
+      <c r="D88" s="7">
+        <f>IF(VLOOKUP(A88,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A88,Planilha2!A:C,3,0),"-")</f>
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>21119</v>
       </c>
       <c r="B89" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="18" t="str">
+        <f>IF(VLOOKUP(A89,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A89,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D89" s="7" t="str">
+        <f>IF(VLOOKUP(A89,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A89,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>19229</v>
       </c>
       <c r="B90" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="18" t="str">
+        <f>IF(VLOOKUP(A90,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A90,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D90" s="7" t="str">
+        <f>IF(VLOOKUP(A90,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A90,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13566</v>
       </c>
       <c r="B91" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="18" t="str">
+        <f>IF(VLOOKUP(A91,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A91,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D91" s="7" t="str">
+        <f>IF(VLOOKUP(A91,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A91,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>22180</v>
       </c>
       <c r="B92" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="18">
+        <f>IF(VLOOKUP(A92,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A92,Planilha2!A:B,2,0),"-")</f>
+        <v>45617</v>
+      </c>
+      <c r="D92" s="7">
+        <f>IF(VLOOKUP(A92,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A92,Planilha2!A:C,3,0),"-")</f>
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8919</v>
       </c>
       <c r="B93" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="18" t="str">
+        <f>IF(VLOOKUP(A93,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A93,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D93" s="7" t="str">
+        <f>IF(VLOOKUP(A93,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A93,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>23269</v>
       </c>
       <c r="B94" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="18" t="str">
+        <f>IF(VLOOKUP(A94,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A94,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D94" s="7">
+        <f>IF(VLOOKUP(A94,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A94,Planilha2!A:C,3,0),"-")</f>
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>25700</v>
       </c>
       <c r="B95" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" s="18">
+        <f>IF(VLOOKUP(A95,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A95,Planilha2!A:B,2,0),"-")</f>
+        <v>45650</v>
+      </c>
+      <c r="D95" s="7">
+        <f>IF(VLOOKUP(A95,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A95,Planilha2!A:C,3,0),"-")</f>
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>30045</v>
       </c>
       <c r="B96" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="18" t="str">
+        <f>IF(VLOOKUP(A96,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A96,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D96" s="7">
+        <f>IF(VLOOKUP(A96,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A96,Planilha2!A:C,3,0),"-")</f>
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>23271</v>
       </c>
       <c r="B97" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="18" t="str">
+        <f>IF(VLOOKUP(A97,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A97,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D97" s="7" t="str">
+        <f>IF(VLOOKUP(A97,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A97,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22200</v>
       </c>
       <c r="B98" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="18" t="str">
+        <f>IF(VLOOKUP(A98,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A98,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D98" s="7">
+        <f>IF(VLOOKUP(A98,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A98,Planilha2!A:C,3,0),"-")</f>
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2354</v>
       </c>
       <c r="B99" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="18" t="str">
+        <f>IF(VLOOKUP(A99,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A99,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D99" s="7">
+        <f>IF(VLOOKUP(A99,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A99,Planilha2!A:C,3,0),"-")</f>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2548</v>
       </c>
       <c r="B100" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="18">
+        <f>IF(VLOOKUP(A100,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A100,Planilha2!A:B,2,0),"-")</f>
+        <v>45649</v>
+      </c>
+      <c r="D100" s="7">
+        <f>IF(VLOOKUP(A100,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A100,Planilha2!A:C,3,0),"-")</f>
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20329</v>
       </c>
       <c r="B101" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="18" t="str">
+        <f>IF(VLOOKUP(A101,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A101,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D101" s="7">
+        <f>IF(VLOOKUP(A101,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A101,Planilha2!A:C,3,0),"-")</f>
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>8793</v>
       </c>
       <c r="B102" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="18">
+        <f>IF(VLOOKUP(A102,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A102,Planilha2!A:B,2,0),"-")</f>
+        <v>45523</v>
+      </c>
+      <c r="D102" s="7">
+        <f>IF(VLOOKUP(A102,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A102,Planilha2!A:C,3,0),"-")</f>
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>982</v>
       </c>
       <c r="B103" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="18">
+        <f>IF(VLOOKUP(A103,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A103,Planilha2!A:B,2,0),"-")</f>
+        <v>45644</v>
+      </c>
+      <c r="D103" s="7">
+        <f>IF(VLOOKUP(A103,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A103,Planilha2!A:C,3,0),"-")</f>
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>9067</v>
       </c>
       <c r="B104" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="18" t="str">
+        <f>IF(VLOOKUP(A104,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A104,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D104" s="7">
+        <f>IF(VLOOKUP(A104,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A104,Planilha2!A:C,3,0),"-")</f>
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9085</v>
       </c>
       <c r="B105" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="18" t="str">
+        <f>IF(VLOOKUP(A105,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A105,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D105" s="7" t="str">
+        <f>IF(VLOOKUP(A105,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A105,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9091</v>
       </c>
       <c r="B106" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="18" t="str">
+        <f>IF(VLOOKUP(A106,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A106,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D106" s="7">
+        <f>IF(VLOOKUP(A106,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A106,Planilha2!A:C,3,0),"-")</f>
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20498</v>
       </c>
       <c r="B107" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="18" t="str">
+        <f>IF(VLOOKUP(A107,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A107,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D107" s="7">
+        <f>IF(VLOOKUP(A107,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A107,Planilha2!A:C,3,0),"-")</f>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9084</v>
       </c>
       <c r="B108" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="18" t="str">
+        <f>IF(VLOOKUP(A108,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A108,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D108" s="7">
+        <f>IF(VLOOKUP(A108,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A108,Planilha2!A:C,3,0),"-")</f>
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12951</v>
       </c>
       <c r="B109" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="18" t="str">
+        <f>IF(VLOOKUP(A109,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A109,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D109" s="7">
+        <f>IF(VLOOKUP(A109,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A109,Planilha2!A:C,3,0),"-")</f>
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>21658</v>
       </c>
       <c r="B110" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="18" t="str">
+        <f>IF(VLOOKUP(A110,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A110,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D110" s="7">
+        <f>IF(VLOOKUP(A110,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A110,Planilha2!A:C,3,0),"-")</f>
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>14340</v>
       </c>
       <c r="B111" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="18" t="str">
+        <f>IF(VLOOKUP(A111,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A111,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D111" s="7">
+        <f>IF(VLOOKUP(A111,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A111,Planilha2!A:C,3,0),"-")</f>
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3733</v>
       </c>
       <c r="B112" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="18" t="str">
+        <f>IF(VLOOKUP(A112,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A112,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D112" s="7">
+        <f>IF(VLOOKUP(A112,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A112,Planilha2!A:C,3,0),"-")</f>
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14138</v>
       </c>
       <c r="B113" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="18" t="str">
+        <f>IF(VLOOKUP(A113,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A113,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D113" s="7" t="str">
+        <f>IF(VLOOKUP(A113,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A113,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>9068</v>
       </c>
       <c r="B114" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="18" t="str">
+        <f>IF(VLOOKUP(A114,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A114,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D114" s="7">
+        <f>IF(VLOOKUP(A114,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A114,Planilha2!A:C,3,0),"-")</f>
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2006</v>
       </c>
       <c r="B115" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="18" t="str">
+        <f>IF(VLOOKUP(A115,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A115,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D115" s="7">
+        <f>IF(VLOOKUP(A115,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A115,Planilha2!A:C,3,0),"-")</f>
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>18780</v>
       </c>
       <c r="B116" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="18">
+        <f>IF(VLOOKUP(A116,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A116,Planilha2!A:B,2,0),"-")</f>
+        <v>45792</v>
+      </c>
+      <c r="D116" s="7">
+        <f>IF(VLOOKUP(A116,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A116,Planilha2!A:C,3,0),"-")</f>
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>21020</v>
       </c>
       <c r="B117" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="18" t="str">
+        <f>IF(VLOOKUP(A117,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A117,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D117" s="7">
+        <f>IF(VLOOKUP(A117,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A117,Planilha2!A:C,3,0),"-")</f>
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11102</v>
       </c>
       <c r="B118" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="18">
+        <f>IF(VLOOKUP(A118,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A118,Planilha2!A:B,2,0),"-")</f>
+        <v>45552</v>
+      </c>
+      <c r="D118" s="7">
+        <f>IF(VLOOKUP(A118,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A118,Planilha2!A:C,3,0),"-")</f>
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9096</v>
       </c>
       <c r="B119" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="18">
+        <f>IF(VLOOKUP(A119,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A119,Planilha2!A:B,2,0),"-")</f>
+        <v>45610</v>
+      </c>
+      <c r="D119" s="7">
+        <f>IF(VLOOKUP(A119,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A119,Planilha2!A:C,3,0),"-")</f>
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>13486</v>
       </c>
       <c r="B120" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="18" t="str">
+        <f>IF(VLOOKUP(A120,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A120,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D120" s="7" t="str">
+        <f>IF(VLOOKUP(A120,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A120,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2008</v>
       </c>
       <c r="B121" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="18" t="str">
+        <f>IF(VLOOKUP(A121,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A121,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D121" s="7">
+        <f>IF(VLOOKUP(A121,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A121,Planilha2!A:C,3,0),"-")</f>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>18266</v>
       </c>
       <c r="B122" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="18">
+        <f>IF(VLOOKUP(A122,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A122,Planilha2!A:B,2,0),"-")</f>
+        <v>45531</v>
+      </c>
+      <c r="D122" s="7">
+        <f>IF(VLOOKUP(A122,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A122,Planilha2!A:C,3,0),"-")</f>
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>19729</v>
       </c>
       <c r="B123" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="18">
+        <f>IF(VLOOKUP(A123,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A123,Planilha2!A:B,2,0),"-")</f>
+        <v>45594</v>
+      </c>
+      <c r="D123" s="7">
+        <f>IF(VLOOKUP(A123,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A123,Planilha2!A:C,3,0),"-")</f>
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>10530</v>
       </c>
       <c r="B124" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" s="18" t="str">
+        <f>IF(VLOOKUP(A124,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A124,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D124" s="7">
+        <f>IF(VLOOKUP(A124,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A124,Planilha2!A:C,3,0),"-")</f>
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2349</v>
       </c>
       <c r="B125" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="18" t="str">
+        <f>IF(VLOOKUP(A125,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A125,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D125" s="7">
+        <f>IF(VLOOKUP(A125,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A125,Planilha2!A:C,3,0),"-")</f>
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>17266</v>
       </c>
       <c r="B126" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="18" t="str">
+        <f>IF(VLOOKUP(A126,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A126,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D126" s="7">
+        <f>IF(VLOOKUP(A126,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A126,Planilha2!A:C,3,0),"-")</f>
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9427</v>
       </c>
       <c r="B127" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="18">
+        <f>IF(VLOOKUP(A127,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A127,Planilha2!A:B,2,0),"-")</f>
+        <v>45680</v>
+      </c>
+      <c r="D127" s="7">
+        <f>IF(VLOOKUP(A127,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A127,Planilha2!A:C,3,0),"-")</f>
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2585</v>
       </c>
       <c r="B128" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="18" t="str">
+        <f>IF(VLOOKUP(A128,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A128,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D128" s="7">
+        <f>IF(VLOOKUP(A128,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A128,Planilha2!A:C,3,0),"-")</f>
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>503</v>
       </c>
       <c r="B129" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="18">
+        <f>IF(VLOOKUP(A129,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A129,Planilha2!A:B,2,0),"-")</f>
+        <v>45626</v>
+      </c>
+      <c r="D129" s="7">
+        <f>IF(VLOOKUP(A129,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A129,Planilha2!A:C,3,0),"-")</f>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>26462</v>
       </c>
       <c r="B130" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="18" t="str">
+        <f>IF(VLOOKUP(A130,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A130,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D130" s="7">
+        <f>IF(VLOOKUP(A130,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A130,Planilha2!A:C,3,0),"-")</f>
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>9276</v>
       </c>
       <c r="B131" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="18" t="str">
+        <f>IF(VLOOKUP(A131,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A131,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D131" s="7">
+        <f>IF(VLOOKUP(A131,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A131,Planilha2!A:C,3,0),"-")</f>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>29700</v>
       </c>
       <c r="B132" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="18">
+        <f>IF(VLOOKUP(A132,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A132,Planilha2!A:B,2,0),"-")</f>
+        <v>45671</v>
+      </c>
+      <c r="D132" s="7">
+        <f>IF(VLOOKUP(A132,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A132,Planilha2!A:C,3,0),"-")</f>
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>9083</v>
       </c>
       <c r="B133" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" s="18">
+        <f>IF(VLOOKUP(A133,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A133,Planilha2!A:B,2,0),"-")</f>
+        <v>45662</v>
+      </c>
+      <c r="D133" s="7">
+        <f>IF(VLOOKUP(A133,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A133,Planilha2!A:C,3,0),"-")</f>
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>18137</v>
       </c>
       <c r="B134" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="18" t="str">
+        <f>IF(VLOOKUP(A134,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A134,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D134" s="7">
+        <f>IF(VLOOKUP(A134,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A134,Planilha2!A:C,3,0),"-")</f>
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7703</v>
       </c>
       <c r="B135" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" s="18" t="str">
+        <f>IF(VLOOKUP(A135,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A135,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D135" s="7">
+        <f>IF(VLOOKUP(A135,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A135,Planilha2!A:C,3,0),"-")</f>
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2532</v>
       </c>
       <c r="B136" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" s="18">
+        <f>IF(VLOOKUP(A136,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A136,Planilha2!A:B,2,0),"-")</f>
+        <v>45657</v>
+      </c>
+      <c r="D136" s="7">
+        <f>IF(VLOOKUP(A136,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A136,Planilha2!A:C,3,0),"-")</f>
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20178</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="18" t="str">
+        <f>IF(VLOOKUP(A137,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A137,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D137" s="7">
+        <f>IF(VLOOKUP(A137,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A137,Planilha2!A:C,3,0),"-")</f>
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2132</v>
       </c>
       <c r="B138" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="18" t="str">
+        <f>IF(VLOOKUP(A138,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A138,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D138" s="7">
+        <f>IF(VLOOKUP(A138,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A138,Planilha2!A:C,3,0),"-")</f>
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18807</v>
       </c>
       <c r="B139" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="18" t="str">
+        <f>IF(VLOOKUP(A139,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A139,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D139" s="7" t="str">
+        <f>IF(VLOOKUP(A139,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A139,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>9092</v>
       </c>
       <c r="B140" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" s="18">
+        <f>IF(VLOOKUP(A140,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A140,Planilha2!A:B,2,0),"-")</f>
+        <v>45991</v>
+      </c>
+      <c r="D140" s="7">
+        <f>IF(VLOOKUP(A140,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A140,Planilha2!A:C,3,0),"-")</f>
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18152</v>
       </c>
       <c r="B141" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="18">
+        <f>IF(VLOOKUP(A141,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A141,Planilha2!A:B,2,0),"-")</f>
+        <v>45554</v>
+      </c>
+      <c r="D141" s="7">
+        <f>IF(VLOOKUP(A141,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A141,Planilha2!A:C,3,0),"-")</f>
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>16480</v>
       </c>
       <c r="B142" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="18" t="str">
+        <f>IF(VLOOKUP(A142,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A142,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D142" s="7">
+        <f>IF(VLOOKUP(A142,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A142,Planilha2!A:C,3,0),"-")</f>
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>8791</v>
       </c>
       <c r="B143" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="18">
+        <f>IF(VLOOKUP(A143,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A143,Planilha2!A:B,2,0),"-")</f>
+        <v>45544</v>
+      </c>
+      <c r="D143" s="7">
+        <f>IF(VLOOKUP(A143,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A143,Planilha2!A:C,3,0),"-")</f>
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>29253</v>
       </c>
       <c r="B144" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="18">
+        <f>IF(VLOOKUP(A144,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A144,Planilha2!A:B,2,0),"-")</f>
+        <v>45683</v>
+      </c>
+      <c r="D144" s="7">
+        <f>IF(VLOOKUP(A144,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A144,Planilha2!A:C,3,0),"-")</f>
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1743</v>
       </c>
       <c r="B145" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="18">
+        <f>IF(VLOOKUP(A145,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A145,Planilha2!A:B,2,0),"-")</f>
+        <v>45582</v>
+      </c>
+      <c r="D145" s="7">
+        <f>IF(VLOOKUP(A145,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A145,Planilha2!A:C,3,0),"-")</f>
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>9087</v>
       </c>
       <c r="B146" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="18">
+        <f>IF(VLOOKUP(A146,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A146,Planilha2!A:B,2,0),"-")</f>
+        <v>45588</v>
+      </c>
+      <c r="D146" s="7">
+        <f>IF(VLOOKUP(A146,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A146,Planilha2!A:C,3,0),"-")</f>
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>17725</v>
       </c>
       <c r="B147" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="18">
+        <f>IF(VLOOKUP(A147,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A147,Planilha2!A:B,2,0),"-")</f>
+        <v>45640</v>
+      </c>
+      <c r="D147" s="7" t="str">
+        <f>IF(VLOOKUP(A147,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A147,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>17797</v>
       </c>
       <c r="B148" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" s="18">
+        <f>IF(VLOOKUP(A148,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A148,Planilha2!A:B,2,0),"-")</f>
+        <v>45673</v>
+      </c>
+      <c r="D148" s="7">
+        <f>IF(VLOOKUP(A148,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A148,Planilha2!A:C,3,0),"-")</f>
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>9089</v>
       </c>
       <c r="B149" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" s="18" t="str">
+        <f>IF(VLOOKUP(A149,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A149,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D149" s="7" t="str">
+        <f>IF(VLOOKUP(A149,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A149,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10175</v>
       </c>
       <c r="B150" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="18">
+        <f>IF(VLOOKUP(A150,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A150,Planilha2!A:B,2,0),"-")</f>
+        <v>45643</v>
+      </c>
+      <c r="D150" s="7">
+        <f>IF(VLOOKUP(A150,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A150,Planilha2!A:C,3,0),"-")</f>
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10537</v>
       </c>
       <c r="B151" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="18">
+        <f>IF(VLOOKUP(A151,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A151,Planilha2!A:B,2,0),"-")</f>
+        <v>45573</v>
+      </c>
+      <c r="D151" s="7">
+        <f>IF(VLOOKUP(A151,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A151,Planilha2!A:C,3,0),"-")</f>
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>26754</v>
       </c>
       <c r="B152" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" s="18">
+        <f>IF(VLOOKUP(A152,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A152,Planilha2!A:B,2,0),"-")</f>
+        <v>45608</v>
+      </c>
+      <c r="D152" s="7">
+        <f>IF(VLOOKUP(A152,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A152,Planilha2!A:C,3,0),"-")</f>
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>20533</v>
       </c>
       <c r="B153" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" s="18">
+        <f>IF(VLOOKUP(A153,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A153,Planilha2!A:B,2,0),"-")</f>
+        <v>45617</v>
+      </c>
+      <c r="D153" s="7">
+        <f>IF(VLOOKUP(A153,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A153,Planilha2!A:C,3,0),"-")</f>
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>22326</v>
       </c>
       <c r="B154" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="18">
+        <f>IF(VLOOKUP(A154,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A154,Planilha2!A:B,2,0),"-")</f>
+        <v>45666</v>
+      </c>
+      <c r="D154" s="7">
+        <f>IF(VLOOKUP(A154,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A154,Planilha2!A:C,3,0),"-")</f>
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>19321</v>
       </c>
       <c r="B155" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" s="18">
+        <f>IF(VLOOKUP(A155,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A155,Planilha2!A:B,2,0),"-")</f>
+        <v>45560</v>
+      </c>
+      <c r="D155" s="7">
+        <f>IF(VLOOKUP(A155,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A155,Planilha2!A:C,3,0),"-")</f>
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2231</v>
       </c>
       <c r="B156" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" s="18" t="str">
+        <f>IF(VLOOKUP(A156,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A156,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D156" s="7">
+        <f>IF(VLOOKUP(A156,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A156,Planilha2!A:C,3,0),"-")</f>
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>30910</v>
       </c>
       <c r="B157" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" s="18" t="str">
+        <f>IF(VLOOKUP(A157,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A157,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D157" s="7">
+        <f>IF(VLOOKUP(A157,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A157,Planilha2!A:C,3,0),"-")</f>
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2353</v>
       </c>
       <c r="B158" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" s="18" t="str">
+        <f>IF(VLOOKUP(A158,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A158,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D158" s="7">
+        <f>IF(VLOOKUP(A158,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A158,Planilha2!A:C,3,0),"-")</f>
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11593</v>
       </c>
       <c r="B159" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" s="18">
+        <f>IF(VLOOKUP(A159,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A159,Planilha2!A:B,2,0),"-")</f>
+        <v>45571</v>
+      </c>
+      <c r="D159" s="7">
+        <f>IF(VLOOKUP(A159,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A159,Planilha2!A:C,3,0),"-")</f>
+        <v>45571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>18341</v>
       </c>
       <c r="B160" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" s="18">
+        <f>IF(VLOOKUP(A160,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A160,Planilha2!A:B,2,0),"-")</f>
+        <v>45527</v>
+      </c>
+      <c r="D160" s="7">
+        <f>IF(VLOOKUP(A160,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A160,Planilha2!A:C,3,0),"-")</f>
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7945</v>
       </c>
       <c r="B161" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" s="18" t="str">
+        <f>IF(VLOOKUP(A161,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A161,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D161" s="7">
+        <f>IF(VLOOKUP(A161,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A161,Planilha2!A:C,3,0),"-")</f>
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>504</v>
       </c>
       <c r="B162" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" s="18" t="str">
+        <f>IF(VLOOKUP(A162,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A162,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D162" s="7">
+        <f>IF(VLOOKUP(A162,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A162,Planilha2!A:C,3,0),"-")</f>
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4409</v>
       </c>
       <c r="B163" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" s="18" t="str">
+        <f>IF(VLOOKUP(A163,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A163,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D163" s="7">
+        <f>IF(VLOOKUP(A163,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A163,Planilha2!A:C,3,0),"-")</f>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4293</v>
       </c>
       <c r="B164" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" s="18" t="str">
+        <f>IF(VLOOKUP(A164,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A164,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D164" s="7">
+        <f>IF(VLOOKUP(A164,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A164,Planilha2!A:C,3,0),"-")</f>
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>18144</v>
       </c>
       <c r="B165" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" s="18" t="str">
+        <f>IF(VLOOKUP(A165,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A165,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D165" s="7">
+        <f>IF(VLOOKUP(A165,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A165,Planilha2!A:C,3,0),"-")</f>
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>972</v>
       </c>
       <c r="B166" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" s="18" t="str">
+        <f>IF(VLOOKUP(A166,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A166,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D166" s="7">
+        <f>IF(VLOOKUP(A166,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A166,Planilha2!A:C,3,0),"-")</f>
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1388</v>
       </c>
       <c r="B167" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" s="18" t="str">
+        <f>IF(VLOOKUP(A167,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A167,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D167" s="7" t="str">
+        <f>IF(VLOOKUP(A167,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A167,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>18678</v>
       </c>
       <c r="B168" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" s="18">
+        <f>IF(VLOOKUP(A168,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A168,Planilha2!A:B,2,0),"-")</f>
+        <v>45663</v>
+      </c>
+      <c r="D168" s="7">
+        <f>IF(VLOOKUP(A168,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A168,Planilha2!A:C,3,0),"-")</f>
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>18268</v>
       </c>
       <c r="B169" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" s="18" t="str">
+        <f>IF(VLOOKUP(A169,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A169,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D169" s="7">
+        <f>IF(VLOOKUP(A169,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A169,Planilha2!A:C,3,0),"-")</f>
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>22259</v>
       </c>
       <c r="B170" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" s="18" t="str">
+        <f>IF(VLOOKUP(A170,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A170,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D170" s="7">
+        <f>IF(VLOOKUP(A170,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A170,Planilha2!A:C,3,0),"-")</f>
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>12948</v>
       </c>
       <c r="B171" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" s="18">
+        <f>IF(VLOOKUP(A171,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A171,Planilha2!A:B,2,0),"-")</f>
+        <v>45613</v>
+      </c>
+      <c r="D171" s="7">
+        <f>IF(VLOOKUP(A171,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A171,Planilha2!A:C,3,0),"-")</f>
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>19228</v>
       </c>
       <c r="B172" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" s="18" t="str">
+        <f>IF(VLOOKUP(A172,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A172,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D172" s="7">
+        <f>IF(VLOOKUP(A172,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A172,Planilha2!A:C,3,0),"-")</f>
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8336</v>
       </c>
       <c r="B173" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" s="18">
+        <f>IF(VLOOKUP(A173,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A173,Planilha2!A:B,2,0),"-")</f>
+        <v>45649</v>
+      </c>
+      <c r="D173" s="7">
+        <f>IF(VLOOKUP(A173,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A173,Planilha2!A:C,3,0),"-")</f>
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>19849</v>
       </c>
       <c r="B174" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" s="18" t="str">
+        <f>IF(VLOOKUP(A174,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A174,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D174" s="7" t="str">
+        <f>IF(VLOOKUP(A174,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A174,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>20535</v>
       </c>
       <c r="B175" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" s="18" t="str">
+        <f>IF(VLOOKUP(A175,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A175,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D175" s="7">
+        <f>IF(VLOOKUP(A175,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A175,Planilha2!A:C,3,0),"-")</f>
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>19164</v>
       </c>
       <c r="B176" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" s="18">
+        <f>IF(VLOOKUP(A176,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A176,Planilha2!A:B,2,0),"-")</f>
+        <v>45604</v>
+      </c>
+      <c r="D176" s="7">
+        <f>IF(VLOOKUP(A176,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A176,Planilha2!A:C,3,0),"-")</f>
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>31856</v>
       </c>
       <c r="B177" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" s="18">
+        <f>IF(VLOOKUP(A177,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A177,Planilha2!A:B,2,0),"-")</f>
+        <v>45691</v>
+      </c>
+      <c r="D177" s="7">
+        <f>IF(VLOOKUP(A177,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A177,Planilha2!A:C,3,0),"-")</f>
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>26204</v>
       </c>
       <c r="B178" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" s="18">
+        <f>IF(VLOOKUP(A178,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A178,Planilha2!A:B,2,0),"-")</f>
+        <v>45671</v>
+      </c>
+      <c r="D178" s="7">
+        <f>IF(VLOOKUP(A178,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A178,Planilha2!A:C,3,0),"-")</f>
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4262</v>
       </c>
       <c r="B179" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" s="18" t="str">
+        <f>IF(VLOOKUP(A179,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A179,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D179" s="7">
+        <f>IF(VLOOKUP(A179,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A179,Planilha2!A:C,3,0),"-")</f>
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>21113</v>
       </c>
       <c r="B180" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" s="18">
+        <f>IF(VLOOKUP(A180,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A180,Planilha2!A:B,2,0),"-")</f>
+        <v>45576</v>
+      </c>
+      <c r="D180" s="7">
+        <f>IF(VLOOKUP(A180,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A180,Planilha2!A:C,3,0),"-")</f>
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>29493</v>
       </c>
       <c r="B181" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" s="18" t="str">
+        <f>IF(VLOOKUP(A181,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A181,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D181" s="7">
+        <f>IF(VLOOKUP(A181,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A181,Planilha2!A:C,3,0),"-")</f>
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2544</v>
       </c>
       <c r="B182" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" s="18">
+        <f>IF(VLOOKUP(A182,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A182,Planilha2!A:B,2,0),"-")</f>
+        <v>45566</v>
+      </c>
+      <c r="D182" s="7">
+        <f>IF(VLOOKUP(A182,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A182,Planilha2!A:C,3,0),"-")</f>
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>22220</v>
       </c>
       <c r="B183" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" s="18">
+        <f>IF(VLOOKUP(A183,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A183,Planilha2!A:B,2,0),"-")</f>
+        <v>45549</v>
+      </c>
+      <c r="D183" s="7">
+        <f>IF(VLOOKUP(A183,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A183,Planilha2!A:C,3,0),"-")</f>
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9088</v>
       </c>
       <c r="B184" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" s="18" t="e">
+        <f>IF(VLOOKUP(A184,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A184,Planilha2!A:B,2,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D184" s="7" t="e">
+        <f>IF(VLOOKUP(A184,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A184,Planilha2!A:C,3,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1745</v>
       </c>
       <c r="B185" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" s="18">
+        <f>IF(VLOOKUP(A185,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A185,Planilha2!A:B,2,0),"-")</f>
+        <v>45677</v>
+      </c>
+      <c r="D185" s="7">
+        <f>IF(VLOOKUP(A185,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A185,Planilha2!A:C,3,0),"-")</f>
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18267</v>
       </c>
       <c r="B186" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" s="18" t="str">
+        <f>IF(VLOOKUP(A186,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A186,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D186" s="7">
+        <f>IF(VLOOKUP(A186,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A186,Planilha2!A:C,3,0),"-")</f>
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>27704</v>
       </c>
       <c r="B187" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" s="18" t="str">
+        <f>IF(VLOOKUP(A187,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A187,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D187" s="7">
+        <f>IF(VLOOKUP(A187,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A187,Planilha2!A:C,3,0),"-")</f>
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20531</v>
       </c>
       <c r="B188" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" s="18">
+        <f>IF(VLOOKUP(A188,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A188,Planilha2!A:B,2,0),"-")</f>
+        <v>45665</v>
+      </c>
+      <c r="D188" s="7">
+        <f>IF(VLOOKUP(A188,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A188,Planilha2!A:C,3,0),"-")</f>
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>18491</v>
       </c>
       <c r="B189" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" s="18" t="str">
+        <f>IF(VLOOKUP(A189,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A189,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D189" s="7" t="str">
+        <f>IF(VLOOKUP(A189,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A189,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>22245</v>
       </c>
       <c r="B190" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" s="18" t="str">
+        <f>IF(VLOOKUP(A190,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A190,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D190" s="7">
+        <f>IF(VLOOKUP(A190,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A190,Planilha2!A:C,3,0),"-")</f>
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>18142</v>
       </c>
       <c r="B191" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" s="18" t="str">
+        <f>IF(VLOOKUP(A191,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A191,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D191" s="7">
+        <f>IF(VLOOKUP(A191,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A191,Planilha2!A:C,3,0),"-")</f>
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>27686</v>
       </c>
       <c r="B192" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="18" t="e">
+        <f>IF(VLOOKUP(A192,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A192,Planilha2!A:B,2,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D192" s="7" t="e">
+        <f>IF(VLOOKUP(A192,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A192,Planilha2!A:C,3,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>23450</v>
       </c>
       <c r="B193" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" s="18" t="str">
+        <f>IF(VLOOKUP(A193,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A193,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D193" s="7" t="str">
+        <f>IF(VLOOKUP(A193,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A193,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>19266</v>
       </c>
       <c r="B194" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" s="18" t="str">
+        <f>IF(VLOOKUP(A194,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A194,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D194" s="7">
+        <f>IF(VLOOKUP(A194,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A194,Planilha2!A:C,3,0),"-")</f>
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>21230</v>
       </c>
       <c r="B195" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" s="18" t="e">
+        <f>IF(VLOOKUP(A195,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A195,Planilha2!A:B,2,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D195" s="7" t="e">
+        <f>IF(VLOOKUP(A195,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A195,Planilha2!A:C,3,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>18764</v>
       </c>
       <c r="B196" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" s="18" t="e">
+        <f>IF(VLOOKUP(A196,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A196,Planilha2!A:B,2,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D196" s="7" t="e">
+        <f>IF(VLOOKUP(A196,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A196,Planilha2!A:C,3,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>18765</v>
       </c>
       <c r="B197" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" s="18" t="e">
+        <f>IF(VLOOKUP(A197,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A197,Planilha2!A:B,2,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D197" s="7" t="e">
+        <f>IF(VLOOKUP(A197,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A197,Planilha2!A:C,3,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>23449</v>
       </c>
       <c r="B198" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" s="18" t="str">
+        <f>IF(VLOOKUP(A198,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A198,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D198" s="7">
+        <f>IF(VLOOKUP(A198,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A198,Planilha2!A:C,3,0),"-")</f>
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>22249</v>
       </c>
       <c r="B199" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" s="18" t="e">
+        <f>IF(VLOOKUP(A199,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A199,Planilha2!A:B,2,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D199" s="7" t="e">
+        <f>IF(VLOOKUP(A199,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A199,Planilha2!A:C,3,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>18752</v>
       </c>
       <c r="B200" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" s="18" t="str">
+        <f>IF(VLOOKUP(A200,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A200,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D200" s="7">
+        <f>IF(VLOOKUP(A200,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A200,Planilha2!A:C,3,0),"-")</f>
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3803</v>
       </c>
       <c r="B201" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" s="18" t="str">
+        <f>IF(VLOOKUP(A201,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A201,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D201" s="7" t="str">
+        <f>IF(VLOOKUP(A201,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A201,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>7981</v>
       </c>
       <c r="B202" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" s="18" t="str">
+        <f>IF(VLOOKUP(A202,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A202,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D202" s="7" t="str">
+        <f>IF(VLOOKUP(A202,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A202,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>20603</v>
       </c>
       <c r="B203" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" s="18" t="str">
+        <f>IF(VLOOKUP(A203,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A203,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D203" s="7">
+        <f>IF(VLOOKUP(A203,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A203,Planilha2!A:C,3,0),"-")</f>
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>29495</v>
       </c>
       <c r="B204" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" s="18">
+        <f>IF(VLOOKUP(A204,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A204,Planilha2!A:B,2,0),"-")</f>
+        <v>45670</v>
+      </c>
+      <c r="D204" s="7">
+        <f>IF(VLOOKUP(A204,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A204,Planilha2!A:C,3,0),"-")</f>
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>8921</v>
       </c>
       <c r="B205" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" s="18" t="str">
+        <f>IF(VLOOKUP(A205,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A205,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D205" s="7" t="str">
+        <f>IF(VLOOKUP(A205,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A205,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>620</v>
       </c>
       <c r="B206" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" s="18" t="str">
+        <f>IF(VLOOKUP(A206,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A206,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D206" s="7">
+        <f>IF(VLOOKUP(A206,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A206,Planilha2!A:C,3,0),"-")</f>
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>17757</v>
       </c>
       <c r="B207" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" s="18">
+        <f>IF(VLOOKUP(A207,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A207,Planilha2!A:B,2,0),"-")</f>
+        <v>45675</v>
+      </c>
+      <c r="D207" s="7">
+        <f>IF(VLOOKUP(A207,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A207,Planilha2!A:C,3,0),"-")</f>
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>23463</v>
       </c>
       <c r="B208" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" s="18">
+        <f>IF(VLOOKUP(A208,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A208,Planilha2!A:B,2,0),"-")</f>
+        <v>45597</v>
+      </c>
+      <c r="D208" s="7">
+        <f>IF(VLOOKUP(A208,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A208,Planilha2!A:C,3,0),"-")</f>
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11103</v>
       </c>
       <c r="B209" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" s="18" t="str">
+        <f>IF(VLOOKUP(A209,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A209,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D209" s="7">
+        <f>IF(VLOOKUP(A209,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A209,Planilha2!A:C,3,0),"-")</f>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9809</v>
       </c>
       <c r="B210" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="18" t="str">
+        <f>IF(VLOOKUP(A210,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A210,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D210" s="7" t="str">
+        <f>IF(VLOOKUP(A210,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A210,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>14844</v>
       </c>
       <c r="B211" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" s="18">
+        <f>IF(VLOOKUP(A211,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A211,Planilha2!A:B,2,0),"-")</f>
+        <v>45770</v>
+      </c>
+      <c r="D211" s="7">
+        <f>IF(VLOOKUP(A211,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A211,Planilha2!A:C,3,0),"-")</f>
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>14842</v>
       </c>
       <c r="B212" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="18">
+        <f>IF(VLOOKUP(A212,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A212,Planilha2!A:B,2,0),"-")</f>
+        <v>45612</v>
+      </c>
+      <c r="D212" s="7">
+        <f>IF(VLOOKUP(A212,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A212,Planilha2!A:C,3,0),"-")</f>
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>8923</v>
       </c>
       <c r="B213" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" s="18">
+        <f>IF(VLOOKUP(A213,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A213,Planilha2!A:B,2,0),"-")</f>
+        <v>45507</v>
+      </c>
+      <c r="D213" s="7">
+        <f>IF(VLOOKUP(A213,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A213,Planilha2!A:C,3,0),"-")</f>
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>28512</v>
       </c>
       <c r="B214" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="18" t="str">
+        <f>IF(VLOOKUP(A214,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A214,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D214" s="7" t="str">
+        <f>IF(VLOOKUP(A214,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A214,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>22618</v>
       </c>
       <c r="B215" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="18" t="str">
+        <f>IF(VLOOKUP(A215,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A215,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D215" s="7">
+        <f>IF(VLOOKUP(A215,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A215,Planilha2!A:C,3,0),"-")</f>
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>8931</v>
       </c>
       <c r="B216" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="18">
+        <f>IF(VLOOKUP(A216,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A216,Planilha2!A:B,2,0),"-")</f>
+        <v>45613</v>
+      </c>
+      <c r="D216" s="7">
+        <f>IF(VLOOKUP(A216,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A216,Planilha2!A:C,3,0),"-")</f>
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4143</v>
       </c>
       <c r="B217" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" s="18" t="str">
+        <f>IF(VLOOKUP(A217,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A217,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D217" s="7">
+        <f>IF(VLOOKUP(A217,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A217,Planilha2!A:C,3,0),"-")</f>
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>18490</v>
       </c>
       <c r="B218" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="18">
+        <f>IF(VLOOKUP(A218,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A218,Planilha2!A:B,2,0),"-")</f>
+        <v>45657</v>
+      </c>
+      <c r="D218" s="7">
+        <f>IF(VLOOKUP(A218,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A218,Planilha2!A:C,3,0),"-")</f>
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12935</v>
       </c>
       <c r="B219" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" s="18" t="e">
+        <f>IF(VLOOKUP(A219,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A219,Planilha2!A:B,2,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D219" s="7" t="e">
+        <f>IF(VLOOKUP(A219,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A219,Planilha2!A:C,3,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>15778</v>
       </c>
       <c r="B220" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" s="18">
+        <f>IF(VLOOKUP(A220,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A220,Planilha2!A:B,2,0),"-")</f>
+        <v>45664</v>
+      </c>
+      <c r="D220" s="7">
+        <f>IF(VLOOKUP(A220,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A220,Planilha2!A:C,3,0),"-")</f>
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20072</v>
       </c>
       <c r="B221" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="18">
+        <f>IF(VLOOKUP(A221,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A221,Planilha2!A:B,2,0),"-")</f>
+        <v>45674</v>
+      </c>
+      <c r="D221" s="7">
+        <f>IF(VLOOKUP(A221,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A221,Planilha2!A:C,3,0),"-")</f>
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>20537</v>
       </c>
       <c r="B222" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="18" t="str">
+        <f>IF(VLOOKUP(A222,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A222,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D222" s="7">
+        <f>IF(VLOOKUP(A222,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A222,Planilha2!A:C,3,0),"-")</f>
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>3735</v>
       </c>
       <c r="B223" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" s="18" t="str">
+        <f>IF(VLOOKUP(A223,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A223,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D223" s="7" t="str">
+        <f>IF(VLOOKUP(A223,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A223,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>23194</v>
       </c>
       <c r="B224" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="18" t="str">
+        <f>IF(VLOOKUP(A224,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A224,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D224" s="7">
+        <f>IF(VLOOKUP(A224,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A224,Planilha2!A:C,3,0),"-")</f>
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>23193</v>
       </c>
       <c r="B225" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" s="18">
+        <f>IF(VLOOKUP(A225,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A225,Planilha2!A:B,2,0),"-")</f>
+        <v>45628</v>
+      </c>
+      <c r="D225" s="7" t="str">
+        <f>IF(VLOOKUP(A225,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A225,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>14099</v>
       </c>
       <c r="B226" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" s="18" t="str">
+        <f>IF(VLOOKUP(A226,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A226,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D226" s="7">
+        <f>IF(VLOOKUP(A226,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A226,Planilha2!A:C,3,0),"-")</f>
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>27372</v>
       </c>
       <c r="B227" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" s="18" t="str">
+        <f>IF(VLOOKUP(A227,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A227,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D227" s="7">
+        <f>IF(VLOOKUP(A227,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A227,Planilha2!A:C,3,0),"-")</f>
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>26047</v>
       </c>
       <c r="B228" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="18" t="str">
+        <f>IF(VLOOKUP(A228,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A228,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D228" s="7" t="str">
+        <f>IF(VLOOKUP(A228,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A228,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>23451</v>
       </c>
       <c r="B229" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" s="18" t="str">
+        <f>IF(VLOOKUP(A229,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A229,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D229" s="7">
+        <f>IF(VLOOKUP(A229,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A229,Planilha2!A:C,3,0),"-")</f>
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>20198</v>
       </c>
       <c r="B230" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="18">
+        <f>IF(VLOOKUP(A230,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A230,Planilha2!A:B,2,0),"-")</f>
+        <v>45683</v>
+      </c>
+      <c r="D230" s="7">
+        <f>IF(VLOOKUP(A230,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A230,Planilha2!A:C,3,0),"-")</f>
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>22091</v>
       </c>
       <c r="B231" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="18" t="str">
+        <f>IF(VLOOKUP(A231,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A231,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D231" s="7" t="str">
+        <f>IF(VLOOKUP(A231,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A231,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>31783</v>
       </c>
       <c r="B232" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" s="18" t="str">
+        <f>IF(VLOOKUP(A232,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A232,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D232" s="7">
+        <f>IF(VLOOKUP(A232,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A232,Planilha2!A:C,3,0),"-")</f>
+        <v>56502</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>21946</v>
       </c>
       <c r="B233" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="18" t="str">
+        <f>IF(VLOOKUP(A233,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A233,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D233" s="7">
+        <f>IF(VLOOKUP(A233,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A233,Planilha2!A:C,3,0),"-")</f>
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>18750</v>
       </c>
       <c r="B234" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="18" t="str">
+        <f>IF(VLOOKUP(A234,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A234,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D234" s="7" t="str">
+        <f>IF(VLOOKUP(A234,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A234,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>18135</v>
       </c>
       <c r="B235" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" s="18" t="str">
+        <f>IF(VLOOKUP(A235,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A235,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D235" s="7">
+        <f>IF(VLOOKUP(A235,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A235,Planilha2!A:C,3,0),"-")</f>
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>9259</v>
       </c>
       <c r="B236" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" s="18" t="str">
+        <f>IF(VLOOKUP(A236,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A236,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D236" s="7">
+        <f>IF(VLOOKUP(A236,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A236,Planilha2!A:C,3,0),"-")</f>
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>11518</v>
       </c>
       <c r="B237" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" s="18" t="str">
+        <f>IF(VLOOKUP(A237,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A237,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D237" s="7">
+        <f>IF(VLOOKUP(A237,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A237,Planilha2!A:C,3,0),"-")</f>
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>18674</v>
       </c>
       <c r="B238" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238" s="18">
+        <f>IF(VLOOKUP(A238,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A238,Planilha2!A:B,2,0),"-")</f>
+        <v>45677</v>
+      </c>
+      <c r="D238" s="7" t="str">
+        <f>IF(VLOOKUP(A238,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A238,Planilha2!A:C,3,0),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>18677</v>
       </c>
       <c r="B239" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239" s="18">
+        <f>IF(VLOOKUP(A239,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A239,Planilha2!A:B,2,0),"-")</f>
+        <v>45649</v>
+      </c>
+      <c r="D239" s="7">
+        <f>IF(VLOOKUP(A239,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A239,Planilha2!A:C,3,0),"-")</f>
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>19644</v>
       </c>
       <c r="B240" t="s">
         <v>775</v>
       </c>
+      <c r="C240" s="18" t="str">
+        <f>IF(VLOOKUP(A240,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A240,Planilha2!A:B,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D240" s="7">
+        <f>IF(VLOOKUP(A240,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A240,Planilha2!A:C,3,0),"-")</f>
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C241" s="18" t="e">
+        <f>IF(VLOOKUP(A241,Planilha2!A:B,2,0) &gt; 0,VLOOKUP(A241,Planilha2!A:B,2,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D241" s="7" t="e">
+        <f>IF(VLOOKUP(A241,Planilha2!A:C,3,0)&gt;0,VLOOKUP(A241,Planilha2!A:C,3,0),"-")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924137E6-4B9C-495B-9C62-125295F7FE09}">
+  <dimension ref="A1:C518"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>25174</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>25176</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>25178</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>29232</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>26038</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>21529</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>30649</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>23463</v>
+      </c>
+      <c r="B9" s="8">
+        <v>45597</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>21074</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8">
+        <v>45482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>18345</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>2532</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45657</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2538</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45671</v>
+      </c>
+      <c r="C13" s="8">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>1743</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45582</v>
+      </c>
+      <c r="C14" s="8">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>9067</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>17725</v>
+      </c>
+      <c r="B16" s="8">
+        <v>45640</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>9427</v>
+      </c>
+      <c r="B17" s="8">
+        <v>45680</v>
+      </c>
+      <c r="C17" s="8">
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>11425</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>10530</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>11503</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>10175</v>
+      </c>
+      <c r="B23" s="8">
+        <v>45643</v>
+      </c>
+      <c r="C23" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>21788</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>22514</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>23194</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>23193</v>
+      </c>
+      <c r="B27" s="8">
+        <v>45628</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>32361</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>32349</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>14724</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>20531</v>
+      </c>
+      <c r="B31" s="8">
+        <v>45665</v>
+      </c>
+      <c r="C31" s="8">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>17757</v>
+      </c>
+      <c r="B32" s="8">
+        <v>45675</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>20072</v>
+      </c>
+      <c r="B33" s="8">
+        <v>45674</v>
+      </c>
+      <c r="C33" s="8">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>20537</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>22051</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45640</v>
+      </c>
+      <c r="C35" s="8">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>21777</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>16480</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>10537</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45573</v>
+      </c>
+      <c r="C38" s="12">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>22819</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="8">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>24479</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45641</v>
+      </c>
+      <c r="C40" s="8">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>19266</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="8">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>17266</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>3733</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>21422</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>9072</v>
+      </c>
+      <c r="B45" s="8">
+        <v>45643</v>
+      </c>
+      <c r="C45" s="8">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>3735</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>19849</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>20128</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>978</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45681</v>
+      </c>
+      <c r="C49" s="8">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>988</v>
+      </c>
+      <c r="B50" s="8">
+        <v>45681</v>
+      </c>
+      <c r="C50" s="8">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>1695</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="8">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>9069</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45652</v>
+      </c>
+      <c r="C52" s="8">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>9886</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>17797</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45673</v>
+      </c>
+      <c r="C54" s="8">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>279</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="8">
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>1898</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="8">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>9320</v>
+      </c>
+      <c r="B57" s="8">
+        <v>45681</v>
+      </c>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>22618</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="8">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>3803</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>11504</v>
+      </c>
+      <c r="B60" s="8">
+        <v>45671</v>
+      </c>
+      <c r="C60" s="8">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>21574</v>
+      </c>
+      <c r="B61" s="8">
+        <v>45668</v>
+      </c>
+      <c r="C61" s="8">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>12948</v>
+      </c>
+      <c r="B62" s="8">
+        <v>45613</v>
+      </c>
+      <c r="C62" s="8">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>12951</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="8">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>26754</v>
+      </c>
+      <c r="B64" s="8">
+        <v>45608</v>
+      </c>
+      <c r="C64" s="8">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>20329</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="8">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>26858</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="8">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>20533</v>
+      </c>
+      <c r="B67" s="8">
+        <v>45617</v>
+      </c>
+      <c r="C67" s="8">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>22815</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>20544</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>22326</v>
+      </c>
+      <c r="B70" s="8">
+        <v>45666</v>
+      </c>
+      <c r="C70" s="8">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>20498</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="8">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>21275</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>14074</v>
+      </c>
+      <c r="B73" s="8">
+        <v>45678</v>
+      </c>
+      <c r="C73" s="8">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>15778</v>
+      </c>
+      <c r="B74" s="8">
+        <v>45664</v>
+      </c>
+      <c r="C74" s="8">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>14117</v>
+      </c>
+      <c r="B75" s="8">
+        <v>45668</v>
+      </c>
+      <c r="C75" s="8">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>17264</v>
+      </c>
+      <c r="B76" s="8">
+        <v>45674</v>
+      </c>
+      <c r="C76" s="8">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>14326</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>14123</v>
+      </c>
+      <c r="B78" s="8">
+        <v>45673</v>
+      </c>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>14120</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="8">
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>32648</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="8">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>32646</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="8">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>32644</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>32094</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="8">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>29700</v>
+      </c>
+      <c r="B84" s="8">
+        <v>45671</v>
+      </c>
+      <c r="C84" s="8">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>2548</v>
+      </c>
+      <c r="B85" s="8">
+        <v>45649</v>
+      </c>
+      <c r="C85" s="8">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>13307</v>
+      </c>
+      <c r="B86" s="8">
+        <v>45566</v>
+      </c>
+      <c r="C86" s="8">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>22813</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>11368</v>
+      </c>
+      <c r="B88" s="8">
+        <v>45649</v>
+      </c>
+      <c r="C88" s="8">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>14135</v>
+      </c>
+      <c r="B89" s="8">
+        <v>45650</v>
+      </c>
+      <c r="C89" s="8">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>13839</v>
+      </c>
+      <c r="B90" s="8">
+        <v>45613</v>
+      </c>
+      <c r="C90" s="8">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>21020</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="8">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>17810</v>
+      </c>
+      <c r="B92" s="13">
+        <v>45392</v>
+      </c>
+      <c r="C92" s="8">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>14099</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="8">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>17808</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="8">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>22180</v>
+      </c>
+      <c r="B95" s="8">
+        <v>45617</v>
+      </c>
+      <c r="C95" s="8">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>22177</v>
+      </c>
+      <c r="B96" s="8">
+        <v>45609</v>
+      </c>
+      <c r="C96" s="8">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>25220</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>29337</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="8">
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>31746</v>
+      </c>
+      <c r="B99" s="8">
+        <v>45588</v>
+      </c>
+      <c r="C99" s="8">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>9071</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="8">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>620</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="8">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>23672</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>22009</v>
+      </c>
+      <c r="B103" s="8">
+        <v>45666</v>
+      </c>
+      <c r="C103" s="8">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>21955</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="8">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>22104</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>22027</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>14550</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="8">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>14548</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="8">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>14544</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="8">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>14554</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="8">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>21678</v>
+      </c>
+      <c r="B111" s="8">
+        <v>45619</v>
+      </c>
+      <c r="C111" s="8">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>14552</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="8">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>19515</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>21501</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="8">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>20853</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="8">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>19166</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="8">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>14556</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="8">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>13827</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>18836</v>
+      </c>
+      <c r="B119" s="8">
+        <v>45790</v>
+      </c>
+      <c r="C119" s="8">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>31856</v>
+      </c>
+      <c r="B120" s="8">
+        <v>45691</v>
+      </c>
+      <c r="C120" s="8">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>18780</v>
+      </c>
+      <c r="B121" s="8">
+        <v>45792</v>
+      </c>
+      <c r="C121" s="8">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>23562</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>23564</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>27825</v>
+      </c>
+      <c r="B124" s="8">
+        <v>45649</v>
+      </c>
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>2544</v>
+      </c>
+      <c r="B125" s="8">
+        <v>45566</v>
+      </c>
+      <c r="C125" s="12">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>13843</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>15054</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="10"/>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>9353</v>
+      </c>
+      <c r="B128" s="8">
+        <v>45650</v>
+      </c>
+      <c r="C128" s="8">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>11084</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>31272</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="14">
+        <v>13486</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>25700</v>
+      </c>
+      <c r="B132" s="8">
+        <v>45650</v>
+      </c>
+      <c r="C132" s="8">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>22220</v>
+      </c>
+      <c r="B133" s="8">
+        <v>45549</v>
+      </c>
+      <c r="C133" s="8">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>32427</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11">
+        <v>25299</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="8">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>32067</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="8">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <v>7979</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="8">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>7981</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>7982</v>
+      </c>
+      <c r="B139" s="8">
+        <v>45683</v>
+      </c>
+      <c r="C139" s="8">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <v>7985</v>
+      </c>
+      <c r="B140" s="8">
+        <v>45542</v>
+      </c>
+      <c r="C140" s="8">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="11">
+        <v>23731</v>
+      </c>
+      <c r="B141" s="8">
+        <v>45678</v>
+      </c>
+      <c r="C141" s="8">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11">
+        <v>7983</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="9">
+        <v>7980</v>
+      </c>
+      <c r="B143" s="8">
+        <v>45664</v>
+      </c>
+      <c r="C143" s="8">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>7977</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>29495</v>
+      </c>
+      <c r="B145" s="8">
+        <v>45670</v>
+      </c>
+      <c r="C145" s="8">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>29493</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="8">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>30910</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="8">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>27367</v>
+      </c>
+      <c r="B148" s="8">
+        <v>45525</v>
+      </c>
+      <c r="C148" s="8">
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9">
+        <v>19629</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>18142</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="12">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="11">
+        <v>27001</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <v>22332</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="8">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
+        <v>19321</v>
+      </c>
+      <c r="B153" s="8">
+        <v>45560</v>
+      </c>
+      <c r="C153" s="8">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <v>2231</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="8">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
+        <v>9085</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>8413</v>
+      </c>
+      <c r="B156" s="8">
+        <v>45655</v>
+      </c>
+      <c r="C156" s="8">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
+        <v>2353</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="8">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <v>8921</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <v>2585</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="12">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>9084</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="12">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <v>14844</v>
+      </c>
+      <c r="B161" s="8">
+        <v>45770</v>
+      </c>
+      <c r="C161" s="8">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
+        <v>8411</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <v>2132</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="8">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>19164</v>
+      </c>
+      <c r="B164" s="8">
+        <v>45604</v>
+      </c>
+      <c r="C164" s="8">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="11">
+        <v>7947</v>
+      </c>
+      <c r="B165" s="8">
+        <v>45919</v>
+      </c>
+      <c r="C165" s="8">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>18152</v>
+      </c>
+      <c r="B166" s="8">
+        <v>45554</v>
+      </c>
+      <c r="C166" s="8">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>2777</v>
+      </c>
+      <c r="B167" s="8">
+        <v>45554</v>
+      </c>
+      <c r="C167" s="6"/>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <v>2349</v>
+      </c>
+      <c r="B168" s="6"/>
+      <c r="C168" s="8">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <v>1114</v>
+      </c>
+      <c r="B169" s="8">
+        <v>45610</v>
+      </c>
+      <c r="C169" s="8">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <v>18137</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="8">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
+        <v>31105</v>
+      </c>
+      <c r="B171" s="8">
+        <v>45557</v>
+      </c>
+      <c r="C171" s="8">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>11721</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="8">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <v>8919</v>
+      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+    </row>
+    <row r="174" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <v>22209</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="8">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
+        <v>22213</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="8">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="11">
+        <v>22211</v>
+      </c>
+      <c r="B176" s="6"/>
+      <c r="C176" s="8">
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
+        <v>11103</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="8">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
+        <v>11102</v>
+      </c>
+      <c r="B178" s="8">
+        <v>45552</v>
+      </c>
+      <c r="C178" s="8">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11">
+        <v>8793</v>
+      </c>
+      <c r="B179" s="8">
+        <v>45523</v>
+      </c>
+      <c r="C179" s="8">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <v>8791</v>
+      </c>
+      <c r="B180" s="8">
+        <v>45544</v>
+      </c>
+      <c r="C180" s="8">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
+        <v>13065</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="8">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>13061</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="8">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>22003</v>
+      </c>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <v>22007</v>
+      </c>
+      <c r="B184" s="6"/>
+      <c r="C184" s="8">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>22005</v>
+      </c>
+      <c r="B185" s="6"/>
+      <c r="C185" s="8">
+        <v>45947</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="11">
+        <v>27177</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="8">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>27179</v>
+      </c>
+      <c r="B187" s="6"/>
+      <c r="C187" s="8">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="11">
+        <v>22470</v>
+      </c>
+      <c r="B188" s="6"/>
+      <c r="C188" s="8">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>23235</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="8">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>29646</v>
+      </c>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+    </row>
+    <row r="191" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <v>27038</v>
+      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+    </row>
+    <row r="192" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>22235</v>
+      </c>
+      <c r="B192" s="6"/>
+      <c r="C192" s="8">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
+        <v>19607</v>
+      </c>
+      <c r="B193" s="8">
+        <v>45652</v>
+      </c>
+      <c r="C193" s="8">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <v>9809</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+    </row>
+    <row r="195" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
+        <v>27372</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="8">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <v>23029</v>
+      </c>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+    </row>
+    <row r="197" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="5">
+        <v>29926</v>
+      </c>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
+        <v>21526</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+    </row>
+    <row r="199" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="5">
+        <v>23030</v>
+      </c>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+    </row>
+    <row r="200" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="5">
+        <v>26854</v>
+      </c>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="5">
+        <v>26513</v>
+      </c>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="5">
+        <v>26461</v>
+      </c>
+      <c r="B202" s="8">
+        <v>45518</v>
+      </c>
+      <c r="C202" s="6"/>
+    </row>
+    <row r="203" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="9">
+        <v>9805</v>
+      </c>
+      <c r="B203" s="8">
+        <v>45473</v>
+      </c>
+      <c r="C203" s="6"/>
+    </row>
+    <row r="204" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="5">
+        <v>26047</v>
+      </c>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+    </row>
+    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
+        <v>9081</v>
+      </c>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="11">
+        <v>371</v>
+      </c>
+      <c r="B206" s="6"/>
+      <c r="C206" s="8">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="9">
+        <v>22330</v>
+      </c>
+      <c r="B207" s="6"/>
+      <c r="C207" s="8">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="5">
+        <v>24168</v>
+      </c>
+      <c r="B208" s="6"/>
+      <c r="C208" s="8">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="5">
+        <v>4262</v>
+      </c>
+      <c r="B209" s="6"/>
+      <c r="C209" s="8">
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="5">
+        <v>32277</v>
+      </c>
+      <c r="B210" s="6"/>
+      <c r="C210" s="8">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="5">
+        <v>32289</v>
+      </c>
+      <c r="B211" s="8">
+        <v>45494</v>
+      </c>
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="5">
+        <v>32795</v>
+      </c>
+      <c r="B212" s="6"/>
+      <c r="C212" s="10"/>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="5">
+        <v>32291</v>
+      </c>
+      <c r="B213" s="6"/>
+      <c r="C213" s="8">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="5">
+        <v>20248</v>
+      </c>
+      <c r="B214" s="8">
+        <v>45683</v>
+      </c>
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="5">
+        <v>23449</v>
+      </c>
+      <c r="B215" s="6"/>
+      <c r="C215" s="8">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="5">
+        <v>20198</v>
+      </c>
+      <c r="B216" s="8">
+        <v>45683</v>
+      </c>
+      <c r="C216" s="8">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="5">
+        <v>27704</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="8">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="5">
+        <v>23450</v>
+      </c>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="5">
+        <v>22091</v>
+      </c>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="9">
+        <v>23451</v>
+      </c>
+      <c r="B220" s="6"/>
+      <c r="C220" s="8">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="11">
+        <v>22089</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="8">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
+        <v>22106</v>
+      </c>
+      <c r="B222" s="6"/>
+      <c r="C222" s="8">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
+        <v>21786</v>
+      </c>
+      <c r="B223" s="6"/>
+      <c r="C223" s="8">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="5">
+        <v>22830</v>
+      </c>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+    </row>
+    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="5">
+        <v>21894</v>
+      </c>
+      <c r="B225" s="6"/>
+      <c r="C225" s="8">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="5">
+        <v>21892</v>
+      </c>
+      <c r="B226" s="8">
+        <v>45614</v>
+      </c>
+      <c r="C226" s="8">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="5">
+        <v>31783</v>
+      </c>
+      <c r="B227" s="6"/>
+      <c r="C227" s="8">
+        <v>56502</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="5">
+        <v>29504</v>
+      </c>
+      <c r="B228" s="8">
+        <v>45669</v>
+      </c>
+      <c r="C228" s="8">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="5">
+        <v>25151</v>
+      </c>
+      <c r="B229" s="6"/>
+      <c r="C229" s="8">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="5">
+        <v>24819</v>
+      </c>
+      <c r="B230" s="6"/>
+      <c r="C230" s="8">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="5">
+        <v>2546</v>
+      </c>
+      <c r="B231" s="8">
+        <v>45677</v>
+      </c>
+      <c r="C231" s="8">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="5">
+        <v>29253</v>
+      </c>
+      <c r="B232" s="8">
+        <v>45683</v>
+      </c>
+      <c r="C232" s="8">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="11">
+        <v>19310</v>
+      </c>
+      <c r="B233" s="6"/>
+      <c r="C233" s="8">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="5">
+        <v>20603</v>
+      </c>
+      <c r="B234" s="6"/>
+      <c r="C234" s="8">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="9">
+        <v>21946</v>
+      </c>
+      <c r="B235" s="6"/>
+      <c r="C235" s="8">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="5">
+        <v>26462</v>
+      </c>
+      <c r="B236" s="6"/>
+      <c r="C236" s="8">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="11">
+        <v>14340</v>
+      </c>
+      <c r="B237" s="6"/>
+      <c r="C237" s="8">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="5">
+        <v>8336</v>
+      </c>
+      <c r="B238" s="8">
+        <v>45649</v>
+      </c>
+      <c r="C238" s="8">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="5">
+        <v>21887</v>
+      </c>
+      <c r="B239" s="6"/>
+      <c r="C239" s="10"/>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="5">
+        <v>21789</v>
+      </c>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="5">
+        <v>24571</v>
+      </c>
+      <c r="B241" s="6"/>
+      <c r="C241" s="8">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="5">
+        <v>23651</v>
+      </c>
+      <c r="B242" s="6"/>
+      <c r="C242" s="8">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="5">
+        <v>22382</v>
+      </c>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+    </row>
+    <row r="244" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="9">
+        <v>18490</v>
+      </c>
+      <c r="B244" s="8">
+        <v>45657</v>
+      </c>
+      <c r="C244" s="8">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
+        <v>17276</v>
+      </c>
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
+        <v>4141</v>
+      </c>
+      <c r="B246" s="8">
+        <v>45655</v>
+      </c>
+      <c r="C246" s="8">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="5">
+        <v>18772</v>
+      </c>
+      <c r="B247" s="6"/>
+      <c r="C247" s="8">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
+        <v>17268</v>
+      </c>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="5">
+        <v>4143</v>
+      </c>
+      <c r="B249" s="6"/>
+      <c r="C249" s="8">
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="5">
+        <v>18750</v>
+      </c>
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+    </row>
+    <row r="251" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="5">
+        <v>23218</v>
+      </c>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+    </row>
+    <row r="252" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="5">
+        <v>4198</v>
+      </c>
+      <c r="B252" s="6"/>
+      <c r="C252" s="10"/>
+    </row>
+    <row r="253" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="11">
+        <v>17278</v>
+      </c>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+    </row>
+    <row r="254" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="5">
+        <v>4193</v>
+      </c>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+    </row>
+    <row r="255" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="5">
+        <v>18752</v>
+      </c>
+      <c r="B255" s="6"/>
+      <c r="C255" s="8">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="5">
+        <v>28512</v>
+      </c>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+    </row>
+    <row r="257" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="5">
+        <v>4293</v>
+      </c>
+      <c r="B257" s="6"/>
+      <c r="C257" s="8">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="5">
+        <v>909</v>
+      </c>
+      <c r="B258" s="6"/>
+      <c r="C258" s="8">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="5">
+        <v>11593</v>
+      </c>
+      <c r="B259" s="8">
+        <v>45571</v>
+      </c>
+      <c r="C259" s="8">
+        <v>45571</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="5">
+        <v>9096</v>
+      </c>
+      <c r="B260" s="8">
+        <v>45610</v>
+      </c>
+      <c r="C260" s="8">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="5">
+        <v>14842</v>
+      </c>
+      <c r="B261" s="8">
+        <v>45612</v>
+      </c>
+      <c r="C261" s="8">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="5">
+        <v>8418</v>
+      </c>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+    </row>
+    <row r="263" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="5">
+        <v>7703</v>
+      </c>
+      <c r="B263" s="6"/>
+      <c r="C263" s="8">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="5">
+        <v>7945</v>
+      </c>
+      <c r="B264" s="6"/>
+      <c r="C264" s="8">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="5">
+        <v>18266</v>
+      </c>
+      <c r="B265" s="8">
+        <v>45531</v>
+      </c>
+      <c r="C265" s="8">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="5">
+        <v>10032</v>
+      </c>
+      <c r="B266" s="8">
+        <v>45610</v>
+      </c>
+      <c r="C266" s="12">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="5">
+        <v>504</v>
+      </c>
+      <c r="B267" s="6"/>
+      <c r="C267" s="8">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="5">
+        <v>1116</v>
+      </c>
+      <c r="B268" s="8">
+        <v>45542</v>
+      </c>
+      <c r="C268" s="8">
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="5">
+        <v>18341</v>
+      </c>
+      <c r="B269" s="8">
+        <v>45527</v>
+      </c>
+      <c r="C269" s="12">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="5">
+        <v>8923</v>
+      </c>
+      <c r="B270" s="8">
+        <v>45507</v>
+      </c>
+      <c r="C270" s="8">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="5">
+        <v>9093</v>
+      </c>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+    </row>
+    <row r="272" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="5">
+        <v>20178</v>
+      </c>
+      <c r="B272" s="6"/>
+      <c r="C272" s="8">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="11">
+        <v>4409</v>
+      </c>
+      <c r="B273" s="6"/>
+      <c r="C273" s="8">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="11">
+        <v>9274</v>
+      </c>
+      <c r="B274" s="8">
+        <v>45514</v>
+      </c>
+      <c r="C274" s="8">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="5">
+        <v>9276</v>
+      </c>
+      <c r="B275" s="6"/>
+      <c r="C275" s="8">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="5">
+        <v>23256</v>
+      </c>
+      <c r="B276" s="6"/>
+      <c r="C276" s="8">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="5">
+        <v>23246</v>
+      </c>
+      <c r="B277" s="6"/>
+      <c r="C277" s="8">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="5">
+        <v>23614</v>
+      </c>
+      <c r="B278" s="6"/>
+      <c r="C278" s="8">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="5">
+        <v>23060</v>
+      </c>
+      <c r="B279" s="8">
+        <v>45672</v>
+      </c>
+      <c r="C279" s="8">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="5">
+        <v>23606</v>
+      </c>
+      <c r="B280" s="8">
+        <v>45587</v>
+      </c>
+      <c r="C280" s="8">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="5">
+        <v>23600</v>
+      </c>
+      <c r="B281" s="6"/>
+      <c r="C281" s="8">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="5">
+        <v>23598</v>
+      </c>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="5">
+        <v>23594</v>
+      </c>
+      <c r="B283" s="6"/>
+      <c r="C283" s="8">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="5">
+        <v>21791</v>
+      </c>
+      <c r="B284" s="6"/>
+      <c r="C284" s="8">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="9">
+        <v>22641</v>
+      </c>
+      <c r="B285" s="6"/>
+      <c r="C285" s="8">
+        <v>47384</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="9">
+        <v>24044</v>
+      </c>
+      <c r="B286" s="6"/>
+      <c r="C286" s="8">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="5">
+        <v>24042</v>
+      </c>
+      <c r="B287" s="8">
+        <v>45492</v>
+      </c>
+      <c r="C287" s="8">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="5">
+        <v>24046</v>
+      </c>
+      <c r="B288" s="8">
+        <v>45662</v>
+      </c>
+      <c r="C288" s="8">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="5">
+        <v>19225</v>
+      </c>
+      <c r="B289" s="8">
+        <v>45662</v>
+      </c>
+      <c r="C289" s="8">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="5">
+        <v>19228</v>
+      </c>
+      <c r="B290" s="6"/>
+      <c r="C290" s="8">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="5">
+        <v>19229</v>
+      </c>
+      <c r="B291" s="6"/>
+      <c r="C291" s="6"/>
+    </row>
+    <row r="292" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="5">
+        <v>19227</v>
+      </c>
+      <c r="B292" s="8">
+        <v>45992</v>
+      </c>
+      <c r="C292" s="8">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="5">
+        <v>30045</v>
+      </c>
+      <c r="B293" s="6"/>
+      <c r="C293" s="8">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="5">
+        <v>24306</v>
+      </c>
+      <c r="B294" s="8">
+        <v>45991</v>
+      </c>
+      <c r="C294" s="8">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="5">
+        <v>26607</v>
+      </c>
+      <c r="B295" s="6"/>
+      <c r="C295" s="12">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="5">
+        <v>19231</v>
+      </c>
+      <c r="B296" s="6"/>
+      <c r="C296" s="8">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="5">
+        <v>32969</v>
+      </c>
+      <c r="B297" s="6"/>
+      <c r="C297" s="8">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="5">
+        <v>21666</v>
+      </c>
+      <c r="B298" s="6"/>
+      <c r="C298" s="8">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="11">
+        <v>22050</v>
+      </c>
+      <c r="B299" s="6"/>
+      <c r="C299" s="8">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="5">
+        <v>24266</v>
+      </c>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+    </row>
+    <row r="301" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="5">
+        <v>24265</v>
+      </c>
+      <c r="B301" s="6"/>
+      <c r="C301" s="8">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="5">
+        <v>25329</v>
+      </c>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+    </row>
+    <row r="303" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="5">
+        <v>25335</v>
+      </c>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+    </row>
+    <row r="304" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="5">
+        <v>25342</v>
+      </c>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+    </row>
+    <row r="305" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="5">
+        <v>25333</v>
+      </c>
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+    </row>
+    <row r="306" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="5">
+        <v>24048</v>
+      </c>
+      <c r="B306" s="6"/>
+      <c r="C306" s="6"/>
+    </row>
+    <row r="307" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="5">
+        <v>24057</v>
+      </c>
+      <c r="B307" s="6"/>
+      <c r="C307" s="6"/>
+    </row>
+    <row r="308" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="5">
+        <v>24085</v>
+      </c>
+      <c r="B308" s="6"/>
+      <c r="C308" s="8">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="5">
+        <v>24055</v>
+      </c>
+      <c r="B309" s="6"/>
+      <c r="C309" s="8">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="5">
+        <v>22049</v>
+      </c>
+      <c r="B310" s="6"/>
+      <c r="C310" s="8">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="5">
+        <v>21775</v>
+      </c>
+      <c r="B311" s="6"/>
+      <c r="C311" s="6"/>
+    </row>
+    <row r="312" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="5">
+        <v>21776</v>
+      </c>
+      <c r="B312" s="6"/>
+      <c r="C312" s="6"/>
+    </row>
+    <row r="313" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="5">
+        <v>18135</v>
+      </c>
+      <c r="B313" s="6"/>
+      <c r="C313" s="8">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="5">
+        <v>18845</v>
+      </c>
+      <c r="B314" s="6"/>
+      <c r="C314" s="8">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="5">
+        <v>9073</v>
+      </c>
+      <c r="B315" s="6"/>
+      <c r="C315" s="6"/>
+    </row>
+    <row r="316" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="5">
+        <v>18144</v>
+      </c>
+      <c r="B316" s="6"/>
+      <c r="C316" s="8">
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="5">
+        <v>972</v>
+      </c>
+      <c r="B317" s="6"/>
+      <c r="C317" s="8">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="5">
+        <v>982</v>
+      </c>
+      <c r="B318" s="8">
+        <v>45644</v>
+      </c>
+      <c r="C318" s="8">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="5">
+        <v>20174</v>
+      </c>
+      <c r="B319" s="8">
+        <v>45676</v>
+      </c>
+      <c r="C319" s="6"/>
+    </row>
+    <row r="320" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="5">
+        <v>29485</v>
+      </c>
+      <c r="B320" s="6"/>
+      <c r="C320" s="8">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="5">
+        <v>28137</v>
+      </c>
+      <c r="B321" s="8">
+        <v>45654</v>
+      </c>
+      <c r="C321" s="6"/>
+    </row>
+    <row r="322" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="5">
+        <v>23269</v>
+      </c>
+      <c r="B322" s="6"/>
+      <c r="C322" s="12">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="5">
+        <v>21116</v>
+      </c>
+      <c r="B323" s="8">
+        <v>45699</v>
+      </c>
+      <c r="C323" s="8">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="5">
+        <v>21119</v>
+      </c>
+      <c r="B324" s="6"/>
+      <c r="C324" s="6"/>
+    </row>
+    <row r="325" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="11">
+        <v>19813</v>
+      </c>
+      <c r="B325" s="8">
+        <v>45657</v>
+      </c>
+      <c r="C325" s="8">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="5">
+        <v>15130</v>
+      </c>
+      <c r="B326" s="6"/>
+      <c r="C326" s="6"/>
+    </row>
+    <row r="327" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="5">
+        <v>15132</v>
+      </c>
+      <c r="B327" s="6"/>
+      <c r="C327" s="6"/>
+    </row>
+    <row r="328" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="5">
+        <v>14138</v>
+      </c>
+      <c r="B328" s="6"/>
+      <c r="C328" s="6"/>
+    </row>
+    <row r="329" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="11">
+        <v>23271</v>
+      </c>
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+    </row>
+    <row r="330" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="11">
+        <v>13572</v>
+      </c>
+      <c r="B330" s="8">
+        <v>45699</v>
+      </c>
+      <c r="C330" s="8">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="11">
+        <v>13566</v>
+      </c>
+      <c r="B331" s="6"/>
+      <c r="C331" s="6"/>
+    </row>
+    <row r="332" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="9">
+        <v>21733</v>
+      </c>
+      <c r="B332" s="8">
+        <v>45611</v>
+      </c>
+      <c r="C332" s="8">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="5">
+        <v>21735</v>
+      </c>
+      <c r="B333" s="6"/>
+      <c r="C333" s="6"/>
+    </row>
+    <row r="334" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="5">
+        <v>21737</v>
+      </c>
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+    </row>
+    <row r="335" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="5">
+        <v>21739</v>
+      </c>
+      <c r="B335" s="6"/>
+      <c r="C335" s="6"/>
+    </row>
+    <row r="336" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="5">
+        <v>1388</v>
+      </c>
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
+    </row>
+    <row r="337" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="5">
+        <v>9068</v>
+      </c>
+      <c r="B337" s="6"/>
+      <c r="C337" s="8">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="5">
+        <v>9259</v>
+      </c>
+      <c r="B338" s="6"/>
+      <c r="C338" s="8">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="11">
+        <v>17678</v>
+      </c>
+      <c r="B339" s="6"/>
+      <c r="C339" s="8">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="5">
+        <v>17608</v>
+      </c>
+      <c r="B340" s="6"/>
+      <c r="C340" s="8">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="5">
+        <v>1745</v>
+      </c>
+      <c r="B341" s="8">
+        <v>45677</v>
+      </c>
+      <c r="C341" s="8">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="5">
+        <v>9083</v>
+      </c>
+      <c r="B342" s="8">
+        <v>45662</v>
+      </c>
+      <c r="C342" s="8">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="5">
+        <v>11559</v>
+      </c>
+      <c r="B343" s="6"/>
+      <c r="C343" s="8">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="5">
+        <v>11518</v>
+      </c>
+      <c r="B344" s="6"/>
+      <c r="C344" s="12">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="11">
+        <v>21572</v>
+      </c>
+      <c r="B345" s="6"/>
+      <c r="C345" s="6"/>
+    </row>
+    <row r="346" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="5">
+        <v>18674</v>
+      </c>
+      <c r="B346" s="8">
+        <v>45677</v>
+      </c>
+      <c r="C346" s="6"/>
+    </row>
+    <row r="347" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="5">
+        <v>18677</v>
+      </c>
+      <c r="B347" s="8">
+        <v>45649</v>
+      </c>
+      <c r="C347" s="8">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="5">
+        <v>18678</v>
+      </c>
+      <c r="B348" s="8">
+        <v>45663</v>
+      </c>
+      <c r="C348" s="8">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="5">
+        <v>18680</v>
+      </c>
+      <c r="B349" s="8">
+        <v>45648</v>
+      </c>
+      <c r="C349" s="6"/>
+    </row>
+    <row r="350" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="5">
+        <v>18833</v>
+      </c>
+      <c r="B350" s="6"/>
+      <c r="C350" s="6"/>
+    </row>
+    <row r="351" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="5">
+        <v>18676</v>
+      </c>
+      <c r="B351" s="6"/>
+      <c r="C351" s="6"/>
+    </row>
+    <row r="352" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="5">
+        <v>19644</v>
+      </c>
+      <c r="B352" s="6"/>
+      <c r="C352" s="8">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="5">
+        <v>21781</v>
+      </c>
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+    </row>
+    <row r="354" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="5">
+        <v>26994</v>
+      </c>
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+    </row>
+    <row r="355" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="5">
+        <v>21530</v>
+      </c>
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+    </row>
+    <row r="356" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="5">
+        <v>2592</v>
+      </c>
+      <c r="B356" s="6"/>
+      <c r="C356" s="12">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="9">
+        <v>2354</v>
+      </c>
+      <c r="B357" s="6"/>
+      <c r="C357" s="8">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="5">
+        <v>9087</v>
+      </c>
+      <c r="B358" s="8">
+        <v>45588</v>
+      </c>
+      <c r="C358" s="8">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="9">
+        <v>18267</v>
+      </c>
+      <c r="B359" s="6"/>
+      <c r="C359" s="8">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="5">
+        <v>2655</v>
+      </c>
+      <c r="B360" s="8">
+        <v>45540</v>
+      </c>
+      <c r="C360" s="8">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="5">
+        <v>2350</v>
+      </c>
+      <c r="B361" s="6"/>
+      <c r="C361" s="8">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="5">
+        <v>23186</v>
+      </c>
+      <c r="B362" s="6"/>
+      <c r="C362" s="15" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="5">
+        <v>21632</v>
+      </c>
+      <c r="B363" s="6"/>
+      <c r="C363" s="8">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="5">
+        <v>26204</v>
+      </c>
+      <c r="B364" s="8">
+        <v>45671</v>
+      </c>
+      <c r="C364" s="8">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="5">
+        <v>25837</v>
+      </c>
+      <c r="B365" s="6"/>
+      <c r="C365" s="8">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="5">
+        <v>21658</v>
+      </c>
+      <c r="B366" s="6"/>
+      <c r="C366" s="8">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="5">
+        <v>21668</v>
+      </c>
+      <c r="B367" s="6"/>
+      <c r="C367" s="8">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="5">
+        <v>20530</v>
+      </c>
+      <c r="B368" s="8">
+        <v>45640</v>
+      </c>
+      <c r="C368" s="6"/>
+    </row>
+    <row r="369" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="9">
+        <v>8153</v>
+      </c>
+      <c r="B369" s="8">
+        <v>45667</v>
+      </c>
+      <c r="C369" s="8">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="5">
+        <v>18807</v>
+      </c>
+      <c r="B370" s="6"/>
+      <c r="C370" s="6"/>
+    </row>
+    <row r="371" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="5">
+        <v>1699</v>
+      </c>
+      <c r="B371" s="8">
+        <v>45653</v>
+      </c>
+      <c r="C371" s="8">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="5">
+        <v>15123</v>
+      </c>
+      <c r="B372" s="8">
+        <v>45612</v>
+      </c>
+      <c r="C372" s="8">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="5">
+        <v>26188</v>
+      </c>
+      <c r="B373" s="6"/>
+      <c r="C373" s="6"/>
+    </row>
+    <row r="374" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="5">
+        <v>19729</v>
+      </c>
+      <c r="B374" s="8">
+        <v>45594</v>
+      </c>
+      <c r="C374" s="8">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="5">
+        <v>15134</v>
+      </c>
+      <c r="B375" s="6"/>
+      <c r="C375" s="8">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="5">
+        <v>20535</v>
+      </c>
+      <c r="B376" s="6"/>
+      <c r="C376" s="8">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="5">
+        <v>29580</v>
+      </c>
+      <c r="B377" s="8">
+        <v>45571</v>
+      </c>
+      <c r="C377" s="8">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="5">
+        <v>21113</v>
+      </c>
+      <c r="B378" s="8">
+        <v>45576</v>
+      </c>
+      <c r="C378" s="8">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="5">
+        <v>9089</v>
+      </c>
+      <c r="B379" s="6"/>
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="5">
+        <v>21441</v>
+      </c>
+      <c r="B380" s="8">
+        <v>45587</v>
+      </c>
+      <c r="C380" s="8">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="5">
+        <v>253</v>
+      </c>
+      <c r="B381" s="8">
+        <v>45542</v>
+      </c>
+      <c r="C381" s="6"/>
+    </row>
+    <row r="382" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="5">
+        <v>18268</v>
+      </c>
+      <c r="B382" s="6"/>
+      <c r="C382" s="8">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="5">
+        <v>10028</v>
+      </c>
+      <c r="B383" s="8">
+        <v>45515</v>
+      </c>
+      <c r="C383" s="8">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="5">
+        <v>503</v>
+      </c>
+      <c r="B384" s="8">
+        <v>45626</v>
+      </c>
+      <c r="C384" s="8">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="5">
+        <v>8931</v>
+      </c>
+      <c r="B385" s="8">
+        <v>45613</v>
+      </c>
+      <c r="C385" s="8">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="5">
+        <v>23163</v>
+      </c>
+      <c r="B386" s="6"/>
+      <c r="C386" s="8">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="5">
+        <v>17167</v>
+      </c>
+      <c r="B387" s="6"/>
+      <c r="C387" s="8">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="5">
+        <v>1164</v>
+      </c>
+      <c r="B388" s="8">
+        <v>45514</v>
+      </c>
+      <c r="C388" s="8">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="5">
+        <v>22259</v>
+      </c>
+      <c r="B389" s="6"/>
+      <c r="C389" s="12">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="5">
+        <v>10030</v>
+      </c>
+      <c r="B390" s="6"/>
+      <c r="C390" s="8">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="5">
+        <v>1166</v>
+      </c>
+      <c r="B391" s="6"/>
+      <c r="C391" s="8">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="5">
+        <v>29201</v>
+      </c>
+      <c r="B392" s="6"/>
+      <c r="C392" s="8">
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="5">
+        <v>29199</v>
+      </c>
+      <c r="B393" s="6"/>
+      <c r="C393" s="6"/>
+    </row>
+    <row r="394" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="5">
+        <v>29197</v>
+      </c>
+      <c r="B394" s="6"/>
+      <c r="C394" s="6"/>
+    </row>
+    <row r="395" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="5">
+        <v>29209</v>
+      </c>
+      <c r="B395" s="6"/>
+      <c r="C395" s="8">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="5">
+        <v>29207</v>
+      </c>
+      <c r="B396" s="6"/>
+      <c r="C396" s="8">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="5">
+        <v>29215</v>
+      </c>
+      <c r="B397" s="6"/>
+      <c r="C397" s="6"/>
+    </row>
+    <row r="398" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="11">
+        <v>21527</v>
+      </c>
+      <c r="B398" s="6"/>
+      <c r="C398" s="8">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="5">
+        <v>27394</v>
+      </c>
+      <c r="B399" s="6"/>
+      <c r="C399" s="6"/>
+    </row>
+    <row r="400" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="5">
+        <v>27393</v>
+      </c>
+      <c r="B400" s="6"/>
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="5">
+        <v>4204</v>
+      </c>
+      <c r="B401" s="6"/>
+      <c r="C401" s="8">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="5">
+        <v>4202</v>
+      </c>
+      <c r="B402" s="6"/>
+      <c r="C402" s="8">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="5">
+        <v>31235</v>
+      </c>
+      <c r="B403" s="6"/>
+      <c r="C403" s="8">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="5">
+        <v>26411</v>
+      </c>
+      <c r="B404" s="6"/>
+      <c r="C404" s="8">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="5">
+        <v>4177</v>
+      </c>
+      <c r="B405" s="6"/>
+      <c r="C405" s="12">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="5">
+        <v>4241</v>
+      </c>
+      <c r="B406" s="6"/>
+      <c r="C406" s="8">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="5">
+        <v>4206</v>
+      </c>
+      <c r="B407" s="6"/>
+      <c r="C407" s="8">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="5">
+        <v>31243</v>
+      </c>
+      <c r="B408" s="6"/>
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="5">
+        <v>4238</v>
+      </c>
+      <c r="B409" s="8">
+        <v>45857</v>
+      </c>
+      <c r="C409" s="8">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="5">
+        <v>26539</v>
+      </c>
+      <c r="B410" s="6"/>
+      <c r="C410" s="8">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="5">
+        <v>31241</v>
+      </c>
+      <c r="B411" s="6"/>
+      <c r="C411" s="8">
+        <v>45756</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="5">
+        <v>31237</v>
+      </c>
+      <c r="B412" s="6"/>
+      <c r="C412" s="8">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="5">
+        <v>4174</v>
+      </c>
+      <c r="B413" s="6"/>
+      <c r="C413" s="8">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="5">
+        <v>31232</v>
+      </c>
+      <c r="B414" s="6"/>
+      <c r="C414" s="8">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="5">
+        <v>4219</v>
+      </c>
+      <c r="B415" s="6"/>
+      <c r="C415" s="6"/>
+    </row>
+    <row r="416" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="5">
+        <v>4166</v>
+      </c>
+      <c r="B416" s="6"/>
+      <c r="C416" s="8">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="5">
+        <v>31274</v>
+      </c>
+      <c r="B417" s="6"/>
+      <c r="C417" s="8">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="5">
+        <v>4217</v>
+      </c>
+      <c r="B418" s="6"/>
+      <c r="C418" s="8">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="5">
+        <v>24832</v>
+      </c>
+      <c r="B419" s="6"/>
+      <c r="C419" s="8">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="11">
+        <v>24834</v>
+      </c>
+      <c r="B420" s="6"/>
+      <c r="C420" s="8">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="5">
+        <v>24837</v>
+      </c>
+      <c r="B421" s="6"/>
+      <c r="C421" s="6"/>
+    </row>
+    <row r="422" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="5">
+        <v>31226</v>
+      </c>
+      <c r="B422" s="8">
+        <v>45594</v>
+      </c>
+      <c r="C422" s="8">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="5">
+        <v>4164</v>
+      </c>
+      <c r="B423" s="6"/>
+      <c r="C423" s="6"/>
+    </row>
+    <row r="424" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="5">
+        <v>2237</v>
+      </c>
+      <c r="B424" s="8">
+        <v>45992</v>
+      </c>
+      <c r="C424" s="8">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="11">
+        <v>19307</v>
+      </c>
+      <c r="B425" s="6"/>
+      <c r="C425" s="8">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="5">
+        <v>9092</v>
+      </c>
+      <c r="B426" s="8">
+        <v>45991</v>
+      </c>
+      <c r="C426" s="8">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="5">
+        <v>9091</v>
+      </c>
+      <c r="B427" s="6"/>
+      <c r="C427" s="8">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="11">
+        <v>22200</v>
+      </c>
+      <c r="B428" s="6"/>
+      <c r="C428" s="8">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="5">
+        <v>22202</v>
+      </c>
+      <c r="B429" s="8">
+        <v>45469</v>
+      </c>
+      <c r="C429" s="8">
+        <v>45468</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="5">
+        <v>21968</v>
+      </c>
+      <c r="B430" s="6"/>
+      <c r="C430" s="8">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="5">
+        <v>21973</v>
+      </c>
+      <c r="B431" s="6"/>
+      <c r="C431" s="8">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="5">
+        <v>21970</v>
+      </c>
+      <c r="B432" s="6"/>
+      <c r="C432" s="12">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="5">
+        <v>21976</v>
+      </c>
+      <c r="B433" s="6"/>
+      <c r="C433" s="8">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="5">
+        <v>21974</v>
+      </c>
+      <c r="B434" s="6"/>
+      <c r="C434" s="6"/>
+    </row>
+    <row r="435" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="5">
+        <v>28673</v>
+      </c>
+      <c r="B435" s="6"/>
+      <c r="C435" s="8">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="5">
+        <v>17874</v>
+      </c>
+      <c r="B436" s="6"/>
+      <c r="C436" s="6"/>
+    </row>
+    <row r="437" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="5">
+        <v>14523</v>
+      </c>
+      <c r="B437" s="6"/>
+      <c r="C437" s="8">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="5">
+        <v>18491</v>
+      </c>
+      <c r="B438" s="6"/>
+      <c r="C438" s="6"/>
+    </row>
+    <row r="439" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="5">
+        <v>22245</v>
+      </c>
+      <c r="B439" s="6"/>
+      <c r="C439" s="8">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="5">
+        <v>19799</v>
+      </c>
+      <c r="B440" s="6"/>
+      <c r="C440" s="8">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="5">
+        <v>21086</v>
+      </c>
+      <c r="B441" s="6"/>
+      <c r="C441" s="8">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="5">
+        <v>17283</v>
+      </c>
+      <c r="B442" s="6"/>
+      <c r="C442" s="6"/>
+    </row>
+    <row r="443" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="5">
+        <v>14103</v>
+      </c>
+      <c r="B443" s="6"/>
+      <c r="C443" s="6"/>
+    </row>
+    <row r="444" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="11">
+        <v>14293</v>
+      </c>
+      <c r="B444" s="6"/>
+      <c r="C444" s="8">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="5">
+        <v>14405</v>
+      </c>
+      <c r="B445" s="6"/>
+      <c r="C445" s="8">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="5">
+        <v>14109</v>
+      </c>
+      <c r="B446" s="6"/>
+      <c r="C446" s="8">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="5">
+        <v>26993</v>
+      </c>
+      <c r="B447" s="6"/>
+      <c r="C447" s="8">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="5">
+        <v>21792</v>
+      </c>
+      <c r="B448" s="6"/>
+      <c r="C448" s="6"/>
+    </row>
+    <row r="449" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="5">
+        <v>14113</v>
+      </c>
+      <c r="B449" s="6"/>
+      <c r="C449" s="6"/>
+    </row>
+    <row r="450" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="5">
+        <v>29934</v>
+      </c>
+      <c r="B450" s="6"/>
+      <c r="C450" s="8">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="5">
+        <v>26936</v>
+      </c>
+      <c r="B451" s="6"/>
+      <c r="C451" s="8">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="5">
+        <v>31198</v>
+      </c>
+      <c r="B452" s="6"/>
+      <c r="C452" s="8">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="5">
+        <v>32425</v>
+      </c>
+      <c r="B453" s="6"/>
+      <c r="C453" s="6"/>
+    </row>
+    <row r="454" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="16"/>
+      <c r="B454" s="17"/>
+      <c r="C454" s="17"/>
+    </row>
+    <row r="455" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="16"/>
+      <c r="B455" s="17"/>
+      <c r="C455" s="17"/>
+    </row>
+    <row r="456" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="16"/>
+      <c r="B456" s="17"/>
+      <c r="C456" s="17"/>
+    </row>
+    <row r="457" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="16"/>
+      <c r="B457" s="17"/>
+      <c r="C457" s="17"/>
+    </row>
+    <row r="458" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="16"/>
+      <c r="B458" s="17"/>
+      <c r="C458" s="17"/>
+    </row>
+    <row r="459" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="16"/>
+      <c r="B459" s="17"/>
+      <c r="C459" s="17"/>
+    </row>
+    <row r="460" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="16"/>
+      <c r="B460" s="17"/>
+      <c r="C460" s="17"/>
+    </row>
+    <row r="461" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="16"/>
+      <c r="B461" s="17"/>
+      <c r="C461" s="17"/>
+    </row>
+    <row r="462" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="16"/>
+      <c r="B462" s="17"/>
+      <c r="C462" s="17"/>
+    </row>
+    <row r="463" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="16"/>
+      <c r="B463" s="17"/>
+      <c r="C463" s="17"/>
+    </row>
+    <row r="464" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="16"/>
+      <c r="B464" s="17"/>
+      <c r="C464" s="17"/>
+    </row>
+    <row r="465" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="16"/>
+      <c r="B465" s="17"/>
+      <c r="C465" s="17"/>
+    </row>
+    <row r="466" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="16"/>
+      <c r="B466" s="17"/>
+      <c r="C466" s="17"/>
+    </row>
+    <row r="467" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="16"/>
+      <c r="B467" s="17"/>
+      <c r="C467" s="17"/>
+    </row>
+    <row r="468" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="16"/>
+      <c r="B468" s="17"/>
+      <c r="C468" s="17"/>
+    </row>
+    <row r="469" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="16"/>
+      <c r="B469" s="17"/>
+      <c r="C469" s="17"/>
+    </row>
+    <row r="470" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="16"/>
+      <c r="B470" s="17"/>
+      <c r="C470" s="17"/>
+    </row>
+    <row r="471" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="16"/>
+      <c r="B471" s="17"/>
+      <c r="C471" s="17"/>
+    </row>
+    <row r="472" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="16"/>
+      <c r="B472" s="17"/>
+      <c r="C472" s="17"/>
+    </row>
+    <row r="473" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="16"/>
+      <c r="B473" s="17"/>
+      <c r="C473" s="17"/>
+    </row>
+    <row r="474" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="16"/>
+      <c r="B474" s="17"/>
+      <c r="C474" s="17"/>
+    </row>
+    <row r="475" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="16"/>
+      <c r="B475" s="17"/>
+      <c r="C475" s="17"/>
+    </row>
+    <row r="476" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="16"/>
+      <c r="B476" s="17"/>
+      <c r="C476" s="17"/>
+    </row>
+    <row r="477" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="16"/>
+      <c r="B477" s="17"/>
+      <c r="C477" s="17"/>
+    </row>
+    <row r="478" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="16"/>
+      <c r="B478" s="17"/>
+      <c r="C478" s="17"/>
+    </row>
+    <row r="479" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="16"/>
+      <c r="B479" s="17"/>
+      <c r="C479" s="17"/>
+    </row>
+    <row r="480" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="16"/>
+      <c r="B480" s="17"/>
+      <c r="C480" s="17"/>
+    </row>
+    <row r="481" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="16"/>
+      <c r="B481" s="17"/>
+      <c r="C481" s="17"/>
+    </row>
+    <row r="482" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="16"/>
+      <c r="B482" s="17"/>
+      <c r="C482" s="17"/>
+    </row>
+    <row r="483" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="16"/>
+      <c r="B483" s="17"/>
+      <c r="C483" s="17"/>
+    </row>
+    <row r="484" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="16"/>
+      <c r="B484" s="17"/>
+      <c r="C484" s="17"/>
+    </row>
+    <row r="485" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="16"/>
+      <c r="B485" s="17"/>
+      <c r="C485" s="17"/>
+    </row>
+    <row r="486" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="16"/>
+      <c r="B486" s="17"/>
+      <c r="C486" s="17"/>
+    </row>
+    <row r="487" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="16"/>
+      <c r="B487" s="17"/>
+      <c r="C487" s="17"/>
+    </row>
+    <row r="488" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="16"/>
+      <c r="B488" s="17"/>
+      <c r="C488" s="17"/>
+    </row>
+    <row r="489" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="16"/>
+      <c r="B489" s="17"/>
+      <c r="C489" s="17"/>
+    </row>
+    <row r="490" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="16"/>
+      <c r="B490" s="17"/>
+      <c r="C490" s="17"/>
+    </row>
+    <row r="491" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="16"/>
+      <c r="B491" s="17"/>
+      <c r="C491" s="17"/>
+    </row>
+    <row r="492" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="16"/>
+      <c r="B492" s="17"/>
+      <c r="C492" s="17"/>
+    </row>
+    <row r="493" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="16"/>
+      <c r="B493" s="17"/>
+      <c r="C493" s="17"/>
+    </row>
+    <row r="494" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="16"/>
+      <c r="B494" s="17"/>
+      <c r="C494" s="17"/>
+    </row>
+    <row r="495" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="16"/>
+      <c r="B495" s="17"/>
+      <c r="C495" s="17"/>
+    </row>
+    <row r="496" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="16"/>
+      <c r="B496" s="17"/>
+      <c r="C496" s="17"/>
+    </row>
+    <row r="497" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="16"/>
+      <c r="B497" s="17"/>
+      <c r="C497" s="17"/>
+    </row>
+    <row r="498" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="16"/>
+      <c r="B498" s="17"/>
+      <c r="C498" s="17"/>
+    </row>
+    <row r="499" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="16"/>
+      <c r="B499" s="17"/>
+      <c r="C499" s="17"/>
+    </row>
+    <row r="500" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="16"/>
+      <c r="B500" s="17"/>
+      <c r="C500" s="17"/>
+    </row>
+    <row r="501" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="16"/>
+      <c r="B501" s="17"/>
+      <c r="C501" s="17"/>
+    </row>
+    <row r="502" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="16"/>
+      <c r="B502" s="17"/>
+      <c r="C502" s="17"/>
+    </row>
+    <row r="503" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="16"/>
+      <c r="B503" s="17"/>
+      <c r="C503" s="17"/>
+    </row>
+    <row r="504" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="16"/>
+      <c r="B504" s="17"/>
+      <c r="C504" s="17"/>
+    </row>
+    <row r="505" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="16"/>
+      <c r="B505" s="17"/>
+      <c r="C505" s="17"/>
+    </row>
+    <row r="506" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="16"/>
+      <c r="B506" s="17"/>
+      <c r="C506" s="17"/>
+    </row>
+    <row r="507" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="16"/>
+      <c r="B507" s="17"/>
+      <c r="C507" s="17"/>
+    </row>
+    <row r="508" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="16"/>
+      <c r="B508" s="17"/>
+      <c r="C508" s="17"/>
+    </row>
+    <row r="509" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="16"/>
+      <c r="B509" s="17"/>
+      <c r="C509" s="17"/>
+    </row>
+    <row r="510" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="16"/>
+      <c r="B510" s="17"/>
+      <c r="C510" s="17"/>
+    </row>
+    <row r="511" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="16"/>
+      <c r="B511" s="17"/>
+      <c r="C511" s="17"/>
+    </row>
+    <row r="512" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="16"/>
+      <c r="B512" s="17"/>
+      <c r="C512" s="17"/>
+    </row>
+    <row r="513" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="16"/>
+      <c r="B513" s="17"/>
+      <c r="C513" s="17"/>
+    </row>
+    <row r="514" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="16"/>
+      <c r="B514" s="17"/>
+      <c r="C514" s="17"/>
+    </row>
+    <row r="515" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="16"/>
+      <c r="B515" s="17"/>
+      <c r="C515" s="17"/>
+    </row>
+    <row r="516" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="16"/>
+      <c r="B516" s="17"/>
+      <c r="C516" s="17"/>
+    </row>
+    <row r="517" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="16"/>
+      <c r="B517" s="17"/>
+      <c r="C517" s="17"/>
+    </row>
+    <row r="518" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="16"/>
+      <c r="B518" s="17"/>
+      <c r="C518" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
